--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBC9F7-2548-45DF-9011-B3E74D8657CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4502A14-AC6F-41FB-AB45-EF4DC073FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="3772">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11227,6 +11227,120 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Hóa Quyền, Lộc Tồn đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Lộc Tồn, Bác Sỹ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ đồng cung tại Tật Ách ở Dần</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Hóa Kỵ đồng cung tại Tật Ách ở Thân</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thiên Đồng đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Tham Lang, Văn Xương, Văn Khúc đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thiên Riêu đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thiên Riêu, Phá Toái, Thiên Việt đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thiên Riêu, Đà La, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương, Long Trì đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thiên Hình, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Kình Dương, Đà La đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thiên Khốc, Thiên Hư đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm, Thiên Riêu, Đà La, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang, Thiên Riêu đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn, Kình Dương, Hỏa Tinh đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Tướng, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thất Sát, Đại Hao, Tiểu Hao, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thất Sát, Thiên Hình, Đà La, Phá Quân đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Phá Quân, Thiên Hình, Phục Binh, Địa Không đồng cung tại Tật Ách"</t>
+  </si>
+  <si>
+    <t>Phá Quân, Thiên Hình, Hóa Kỵ, Kình Dương đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>ình Dương, Hỏa Tinh, Linh Tinh, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kình Dương, Thiên Hình, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kình Dương, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kình Dương, Hỏa Tinh, Linh Tinh, Lưu Hà đồng cung tại Tật Ách ở Thìn</t>
+  </si>
+  <si>
+    <t>Tang Môn, Điếu Khách, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Mã, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Tuế, Thiên Hình, Thiên Mã, Kiếp Sát đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tang Môn, Điếu Khách đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Khốc, Thiên Hư, Tang Môn, Bạch Hổ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Riêu, Thiên Hình, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan, Kình Dương, Hóa Kỵ đồng cung tại Tật Ách</t>
   </si>
 </sst>
 </file>
@@ -11765,10 +11879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1652" workbookViewId="0">
-      <selection activeCell="R1660" sqref="R1660"/>
+    <sheetView tabSelected="1" topLeftCell="A3821" workbookViewId="0">
+      <selection activeCell="B3851" sqref="B3851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42262,6 +42376,310 @@
       </c>
       <c r="B3812" t="s">
         <v>3612</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3771</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4502A14-AC6F-41FB-AB45-EF4DC073FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50BEAD2-D7E9-4763-AC47-BD4421F11596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="3772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="3799">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11341,6 +11341,87 @@
   </si>
   <si>
     <t>Đào Hoa, Hồng Loan, Kình Dương, Hóa Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11382,7 +11463,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11879,10 +11970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3851"/>
+  <dimension ref="A1:B3879"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3821" workbookViewId="0">
-      <selection activeCell="B3851" sqref="B3851"/>
+    <sheetView tabSelected="1" topLeftCell="A3836" workbookViewId="0">
+      <selection activeCell="A3853" sqref="A3853:B3879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42682,55 +42773,274 @@
         <v>3771</v>
       </c>
     </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>3798</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3852 A3880:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3852 B3880:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3853:A3879">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50BEAD2-D7E9-4763-AC47-BD4421F11596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05AB7B-51C1-412F-8010-7056A884DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="3799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7822" uniqueCount="3834">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11422,6 +11422,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11463,7 +11568,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11970,10 +12085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3879"/>
+  <dimension ref="A1:B3914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3836" workbookViewId="0">
-      <selection activeCell="A3853" sqref="A3853:B3879"/>
+    <sheetView tabSelected="1" topLeftCell="A3845" workbookViewId="0">
+      <selection activeCell="G3851" sqref="G3851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42989,57 +43104,337 @@
         <v>3798</v>
       </c>
     </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3891" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3892" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3893" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3894" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3895" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3896" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3897" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3898" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3899" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3900" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3901" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3902" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3903" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3904" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3905" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3906" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3907" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3907" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3908" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3909" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3910" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B3910" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3911" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3911" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3912" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B3912" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3913" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B3913" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3914" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B3914" t="s">
+        <v>3833</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3852 A3880:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3852 A3915:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3852 B3880:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3852 B3915:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3853:A3879">
+  <conditionalFormatting sqref="A3853:A3914">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE04379-A16A-467E-A9B9-85B1F3C2E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BFE1AB-7535-4725-994A-2FFB152ECA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8492" uniqueCount="4246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8650" uniqueCount="4325">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12763,6 +12763,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Tật Ách</t>
   </si>
 </sst>
 </file>
@@ -12804,117 +13041,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13411,10 +13538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4247"/>
+  <dimension ref="A1:B4327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4193" workbookViewId="0">
-      <selection activeCell="B4193" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4220" workbookViewId="0">
+      <selection activeCell="B4249" sqref="B4249:B4327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47387,32 +47514,664 @@
         <v>4245</v>
       </c>
     </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4324</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="28" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3852 A3915:A4214 A6760:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3853:A3914">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BFE1AB-7535-4725-994A-2FFB152ECA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F38155-4282-4D7B-B3A6-7A44ACC13F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8650" uniqueCount="4325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="4430">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13000,6 +13000,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
   </si>
 </sst>
 </file>
@@ -13538,10 +13853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4327"/>
+  <dimension ref="A1:B4433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4220" workbookViewId="0">
-      <selection activeCell="B4249" sqref="B4249:B4327"/>
+    <sheetView tabSelected="1" topLeftCell="A4325" workbookViewId="0">
+      <selection activeCell="B4343" sqref="B4343:B4433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48144,6 +48459,846 @@
       </c>
       <c r="B4327" t="s">
         <v>4324</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4399" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4400" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4401" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4402" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4403" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4404" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4405" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4406" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4407" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4408" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4409" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4410" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4411" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4412" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4413" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4414" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4415" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4416" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4417" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4418" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4419" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4420" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4421" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4422" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4423" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4424" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4425" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4426" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4427" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4428" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4429" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4430" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4431" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4432" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4433" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>4429</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F38155-4282-4D7B-B3A6-7A44ACC13F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF67CA72-665E-413B-9988-8EF219CA31AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="4430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="4431">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13315,6 +13315,9 @@
   </si>
   <si>
     <t>Thất Sát đồng cung Phá Quân tại cung đối Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Quý Chị có tình trạng khí huyết kém hay đưa đến sự đau yếu về kinh nguyệt, về tử cung, có ảnh hưởng đến sự sinh nở.</t>
   </si>
 </sst>
 </file>
@@ -13855,8 +13858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:B4433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4325" workbookViewId="0">
-      <selection activeCell="B4343" sqref="B4343:B4433"/>
+    <sheetView tabSelected="1" topLeftCell="A1052" workbookViewId="0">
+      <selection activeCell="H1049" sqref="H1049"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22346,7 +22349,7 @@
         <v>1191</v>
       </c>
       <c r="B1061" t="s">
-        <v>1191</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.25">

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F7D6D-3CBF-4DB8-A86B-386CC001A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF08E6-8518-44E5-B792-882F317EB044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8952" uniqueCount="4487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9020" uniqueCount="4560">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13489,6 +13489,227 @@
   </si>
   <si>
     <t>Bệnh tình, tai ương phải mổ sẻ, phẫu thuật</t>
+  </si>
+  <si>
+    <t>Có tỳ vết ở chân tay hay ở lưng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Tham Lang đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Mắt kém, hay mắc tù tội.</t>
+  </si>
+  <si>
+    <t>Dễ tự tử</t>
+  </si>
+  <si>
+    <t>Tham Lang, Liêm Trinh, Hỏa Tinh đồng cung tại cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Dễ tử tự</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Tham Lang, Địa Không, Địa Kiếp đồng cung tại cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Tai nạn khủng khiếp</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Thất Sát đồng cung tại cung Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắt rất kém, mắc tai nạn xe cộ hay đao thương. </t>
+  </si>
+  <si>
+    <t>Chết bất đắc kỳ tử, hoặc vì mắc tai nạn, hoặc  vì ngộ độc.</t>
+  </si>
+  <si>
+    <t>Đau bụng, bộ máy tiêu hóa không được lành mạnh.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng, Cự Môn đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh tâm khí </t>
+  </si>
+  <si>
+    <t>Thiên Đồng, Thái Âm đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bệnh huyết khí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh ngoài da, chân tay có tỳ vết. </t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thiên Tướng đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Có ám tật.</t>
+  </si>
+  <si>
+    <t>Tham Lang, Văn Xương, Văn Khúc đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhiều nốt ruồi, hay mắc bệnh có liên quan đến lông tóc. </t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thất Sát đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bệnh ở bộ máy tiêu hóa.</t>
+  </si>
+  <si>
+    <t>yếu thận,  phù chân tay.</t>
+  </si>
+  <si>
+    <t>Riêu Việt Toái</t>
+  </si>
+  <si>
+    <t>Riêu Việt Toái hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bệnh chậm nói, câm</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Căng mạch máu, hay nhức đầu</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thái Âm đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bệnh nạn liên miên</t>
+  </si>
+  <si>
+    <t>Thái Dương sáng tại Tật Ách gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Đau mắt,có tật ở mắt.</t>
+  </si>
+  <si>
+    <t>Thái Dương tối tại Tật Ách gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu không mù mắt, què chân cũng đau mắt nặng và 
+khản tiếng. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vật kim khí sắc nhọn đâm vào mắt. </t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Cự Môn đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh khi huyết </t>
+  </si>
+  <si>
+    <t>Bệnh ngoài da hay bệnh tê thấp.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thiên Lương đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bệnh ở hạ bộ.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ, Thái Âm đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Có nhiều mụn nhọt</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Tật Ách gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Chân tay yếu gân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Tật Ách gặp Thiên Khốc, Thiên Hư</t>
+  </si>
+  <si>
+    <t>Bệnh phong đờm, ho ra máu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Tật Ách gặp Thiên Hình, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắc bệnh tật hay tai nạn bất ngờ rất đáng lo ngại. </t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Tật Ách gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Bệnh thần kinh</t>
+  </si>
+  <si>
+    <t>Hay đau bụng, hệ tiêu hóa kém</t>
+  </si>
+  <si>
+    <t>Thái Âm tối tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh đau phổi </t>
+  </si>
+  <si>
+    <t>Thái Âm tối tại Tật Ách gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Bị măt kém, mù lòa, dễ quáng gà</t>
+  </si>
+  <si>
+    <t>Thái Âm, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bị kim khí sắc nhọn đâm vào mắt. </t>
+  </si>
+  <si>
+    <t>Bệnh ở chân</t>
+  </si>
+  <si>
+    <t>Mắc tai nạn xe cộ hay bị súc vật cắn đá, nếu  không, cũng vì ăn uống mà sinh bệnh khó chữa.</t>
+  </si>
+  <si>
+    <t>Tham Lang, Đà La đồng cung tại Tật Ách ở Dần</t>
+  </si>
+  <si>
+    <t>Tham Lang, Đà La đồng cung tại Tật Ách ở Thân</t>
+  </si>
+  <si>
+    <t>Thú dữ cắn đá, nếu không, cũng mác tai nạn xe cộ 
+rất nguy hiểm.</t>
+  </si>
+  <si>
+    <t>Tham Lang, Bạch Hổ đồng cung tại Tật Ách ở Tuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ bị thú dữ cắn chết </t>
+  </si>
+  <si>
+    <t>Chơi bời, phóng túng, sinh hoạt không điều độ mà mắc bệnh.</t>
+  </si>
+  <si>
+    <t>Tham Lang, Hoá Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tai nạn sông nước</t>
+  </si>
+  <si>
+    <t>Tham Lang, Hoá Kỵ đồng cung tại Tật Ách gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Dễ mắc kiện tụng, tù tội</t>
+  </si>
+  <si>
+    <t>Tham Lang, Hoá Kỵ, Thiên Riêu đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tai nạn sông nước, hoặc bị bệnh phong tình</t>
   </si>
 </sst>
 </file>
@@ -14040,10 +14261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:B4477"/>
+  <dimension ref="A2:B4511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4231" workbookViewId="0">
-      <selection activeCell="F4251" sqref="F4251"/>
+    <sheetView tabSelected="1" topLeftCell="A4490" workbookViewId="0">
+      <selection activeCell="B4514" sqref="B4514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14792,7 +15013,7 @@
         <v>230</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17824,7 +18045,7 @@
         <v>604</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>604</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -20432,7 +20653,7 @@
         <v>928</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>928</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -23288,7 +23509,7 @@
         <v>1285</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>1285</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -34571,12 +34792,12 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="2567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2567" s="1" t="s">
         <v>2444</v>
       </c>
       <c r="B2567" s="1" t="s">
-        <v>2444</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
@@ -34592,7 +34813,7 @@
         <v>2446</v>
       </c>
       <c r="B2569" s="1" t="s">
-        <v>2446</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="2570" spans="1:2" x14ac:dyDescent="0.25">
@@ -34603,12 +34824,12 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="2571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2571" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2571" s="1" t="s">
         <v>2448</v>
       </c>
       <c r="B2571" s="1" t="s">
-        <v>2448</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
@@ -34619,12 +34840,12 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="2573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2573" s="1" t="s">
         <v>2450</v>
       </c>
       <c r="B2573" s="1" t="s">
-        <v>2450</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
@@ -34640,7 +34861,7 @@
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>2452</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
@@ -34651,12 +34872,12 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="2577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2577" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2577" s="1" t="s">
         <v>2454</v>
       </c>
       <c r="B2577" s="1" t="s">
-        <v>2454</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2578" spans="1:2" x14ac:dyDescent="0.25">
@@ -40616,7 +40837,7 @@
         <v>3199</v>
       </c>
       <c r="B3322" s="1" t="s">
-        <v>3199</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="3323" spans="1:2" x14ac:dyDescent="0.25">
@@ -43947,20 +44168,20 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="3739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3739" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3739" s="1" t="s">
         <v>3737</v>
       </c>
       <c r="B3739" s="1" t="s">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="3740" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3740" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="B3740" s="1" t="s">
-        <v>3738</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="3741" spans="1:2" x14ac:dyDescent="0.25">
@@ -49857,6 +50078,278 @@
       </c>
       <c r="B4477" s="1" t="s">
         <v>4479</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4478" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B4478" s="1" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4479" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B4479" s="1" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4480" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B4480" s="1" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4481" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B4481" s="1" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4482" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B4482" s="1" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4483" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B4483" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4484" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B4484" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4485" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B4485" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4486" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B4486" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4487" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B4487" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4488" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B4488" s="1" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4489" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B4489" s="1" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4490" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B4490" s="1" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4491" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B4491" s="1" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4492" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B4492" s="1" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4493" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B4493" s="1" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4494" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B4494" s="1" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4495" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B4495" s="1" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4496" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B4496" s="1" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4497" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B4497" s="1" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4498" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B4498" s="1" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4499" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B4499" s="1" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4500" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B4500" s="1" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4501" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B4501" s="1" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4502" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B4502" s="1" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4503" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B4503" s="1" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4504" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B4504" s="1" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4505" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B4505" s="1" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4506" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B4506" s="1" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4507" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B4507" s="1" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4508" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B4508" s="1" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4509" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B4509" s="1" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4510" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4510" s="1" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4511" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B4511" s="1" t="s">
+        <v>4559</v>
       </c>
     </row>
   </sheetData>
@@ -49877,43 +50370,43 @@
   <conditionalFormatting sqref="A146:A209">
     <cfRule type="duplicateValues" dxfId="16" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6758:A1048576 A210:A1632 A2:A24 A26:A85 A144 A1805:A1809 A3442:A3852 A3915:A4214">
-    <cfRule type="duplicateValues" dxfId="15" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="104"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3853:A3914">
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6758:A1048576 A210:A1632 A2:A24 A26:A85 A144 A1805:A1809 A3442:A3852 A3915:A4214">
+    <cfRule type="duplicateValues" dxfId="13" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6758:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3442:B3852 B3915:B4214">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3853:B3914">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B6758:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3915:B4214 B3442:B3852">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF08E6-8518-44E5-B792-882F317EB044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1123AB39-E026-4BE2-A10D-2DB9906405A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9020" uniqueCount="4560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9050" uniqueCount="4596">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13555,9 +13555,6 @@
   </si>
   <si>
     <t>Vũ Khúc, Thất Sát đồng cung tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Bệnh ở bộ máy tiêu hóa.</t>
   </si>
   <si>
     <t>yếu thận,  phù chân tay.</t>
@@ -13710,6 +13707,119 @@
   </si>
   <si>
     <t>Tai nạn sông nước, hoặc bị bệnh phong tình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh ở hạ bộ, mặt thường có vết, lúc ít tuổi có nhiều mụn nhọt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh do tửu sắc gây nên. </t>
+  </si>
+  <si>
+    <t>Cự Môn, Hoá Kỵ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Dễ đuối nước</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Tật ở đầu hoặc mặt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da mặt vàng, có bệnh thuộc về khí huyết hay bệnh ngoài da. </t>
+  </si>
+  <si>
+    <t>Thiên Tướng, Vũ Khúc đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tật ở đầu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng, Thiên Hình đồng cung tại Tật Ách gặp Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Chắc chắn có tật ở đầu</t>
+  </si>
+  <si>
+    <t>Mắc bệnh hàn nhiệt, nhưng không đáng lo ngại.</t>
+  </si>
+  <si>
+    <t>Mặt có bớt, hoặc lúc nhỏ dễ ốm yếu, sức khỏe không tốt</t>
+  </si>
+  <si>
+    <t>Bệnh ở bộ máy tiêu hóa,  thường mắc bệnh trĩ. Nếu 
+không chân tay cũng có thương tích.</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Tật Ách gặp Địa Không, Địa Kiếp, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Mắc tai nạn về súng đạn hay đao thương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rất dễ  chân tay có thương tật, thường hay mắc tai nạn về đao thương. </t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Tật Ách gặp Hoá Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh tật ở mặt. </t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Tật Ách gặp Đà La, Phá Quân, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Dễ mắc tù tội, lao lý</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máu nóng, nên lúc ít tuổi có nhiều mụn nhọt, chóc lở. Lớn lên lại hay mắc tai nạn xe cộ. Nếu không cũng khó tránh được tù tội. </t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Phá Quân đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Mắt kém.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Phá Quân đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Chân tay có tỳ vết.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh, Phá Quân, Hỏa Tinh đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điên cuồng, nếu không, cũng có tật ở mắt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắc tù tội, bị đánh dập tàn nhẫn. </t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Tật Ách gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Tật Ách gặp các sao Kình Dương, Đà La, Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bị điện giật hay sét đánh rất nguy nan. Nếu không, 
+cũng tai nạn về súng đạn. </t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Tật Ách gặp Thiên Hình, Phục Binh, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Bị sát hại</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Tật Ách gặp Đào Hoa, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Mắc bệnh phong tình</t>
   </si>
 </sst>
 </file>
@@ -13754,7 +13864,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14261,10 +14381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:B4511"/>
+  <dimension ref="A2:B4526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4490" workbookViewId="0">
-      <selection activeCell="B4514" sqref="B4514"/>
+    <sheetView tabSelected="1" topLeftCell="A4504" workbookViewId="0">
+      <selection activeCell="E4524" sqref="E4524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16848,12 +16968,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>460</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -18045,7 +18165,7 @@
         <v>604</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -20429,7 +20549,7 @@
         <v>901</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>901</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24992,12 +25112,12 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1342" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>1452</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
@@ -25517,7 +25637,7 @@
         <v>1517</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>1517</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26744,12 +26864,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>37</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
@@ -34797,7 +34917,7 @@
         <v>2444</v>
       </c>
       <c r="B2567" s="1" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
@@ -34813,7 +34933,7 @@
         <v>2446</v>
       </c>
       <c r="B2569" s="1" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="2570" spans="1:2" x14ac:dyDescent="0.25">
@@ -34829,7 +34949,7 @@
         <v>2448</v>
       </c>
       <c r="B2571" s="1" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
@@ -34845,7 +34965,7 @@
         <v>2450</v>
       </c>
       <c r="B2573" s="1" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
@@ -34861,7 +34981,7 @@
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
@@ -34877,7 +34997,7 @@
         <v>2454</v>
       </c>
       <c r="B2577" s="1" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="2578" spans="1:2" x14ac:dyDescent="0.25">
@@ -35008,12 +35128,12 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="2594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2594" s="1" t="s">
         <v>2471</v>
       </c>
       <c r="B2594" s="1" t="s">
-        <v>2471</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="2595" spans="1:2" x14ac:dyDescent="0.25">
@@ -35077,7 +35197,7 @@
         <v>2479</v>
       </c>
       <c r="B2602" s="1" t="s">
-        <v>2479</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2603" spans="1:2" x14ac:dyDescent="0.25">
@@ -35085,7 +35205,7 @@
         <v>2480</v>
       </c>
       <c r="B2603" s="1" t="s">
-        <v>2480</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2604" spans="1:2" x14ac:dyDescent="0.25">
@@ -35165,7 +35285,7 @@
         <v>2490</v>
       </c>
       <c r="B2613" s="1" t="s">
-        <v>2490</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2614" spans="1:2" x14ac:dyDescent="0.25">
@@ -44301,7 +44421,7 @@
         <v>3753</v>
       </c>
       <c r="B3755" s="1" t="s">
-        <v>3753</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="3756" spans="1:2" x14ac:dyDescent="0.25">
@@ -50144,12 +50264,12 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="4486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4486" s="1" t="s">
         <v>4508</v>
       </c>
       <c r="B4486" s="1" t="s">
-        <v>4509</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="4487" spans="1:2" x14ac:dyDescent="0.25">
@@ -50157,55 +50277,55 @@
         <v>3741</v>
       </c>
       <c r="B4487" s="1" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="4488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4488" s="1" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="B4488" s="1" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="4489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4489" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B4489" s="1" t="s">
         <v>4512</v>
-      </c>
-      <c r="B4489" s="1" t="s">
-        <v>4513</v>
       </c>
     </row>
     <row r="4490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4490" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B4490" s="1" t="s">
         <v>4514</v>
-      </c>
-      <c r="B4490" s="1" t="s">
-        <v>4515</v>
       </c>
     </row>
     <row r="4491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4491" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B4491" s="1" t="s">
         <v>4516</v>
-      </c>
-      <c r="B4491" s="1" t="s">
-        <v>4517</v>
       </c>
     </row>
     <row r="4492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4492" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B4492" s="1" t="s">
         <v>4518</v>
-      </c>
-      <c r="B4492" s="1" t="s">
-        <v>4519</v>
       </c>
     </row>
     <row r="4493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4493" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B4493" s="1" t="s">
         <v>4520</v>
-      </c>
-      <c r="B4493" s="1" t="s">
-        <v>4521</v>
       </c>
     </row>
     <row r="4494" spans="1:2" x14ac:dyDescent="0.25">
@@ -50213,200 +50333,323 @@
         <v>3744</v>
       </c>
       <c r="B4494" s="1" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="4495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4495" s="1" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="B4495" s="1" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="4496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4496" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B4496" s="1" t="s">
         <v>4524</v>
-      </c>
-      <c r="B4496" s="1" t="s">
-        <v>4525</v>
       </c>
     </row>
     <row r="4497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4497" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B4497" s="1" t="s">
         <v>4527</v>
-      </c>
-      <c r="B4497" s="1" t="s">
-        <v>4528</v>
       </c>
     </row>
     <row r="4498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4498" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B4498" s="1" t="s">
         <v>4529</v>
-      </c>
-      <c r="B4498" s="1" t="s">
-        <v>4530</v>
       </c>
     </row>
     <row r="4499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4499" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B4499" s="1" t="s">
         <v>4531</v>
-      </c>
-      <c r="B4499" s="1" t="s">
-        <v>4532</v>
       </c>
     </row>
     <row r="4500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4500" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B4500" s="1" t="s">
         <v>4533</v>
-      </c>
-      <c r="B4500" s="1" t="s">
-        <v>4534</v>
       </c>
     </row>
     <row r="4501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4501" s="1" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B4501" s="1" t="s">
         <v>4535</v>
-      </c>
-      <c r="B4501" s="1" t="s">
-        <v>4536</v>
       </c>
     </row>
     <row r="4502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4502" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B4502" s="1" t="s">
         <v>4537</v>
-      </c>
-      <c r="B4502" s="1" t="s">
-        <v>4538</v>
       </c>
     </row>
     <row r="4503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4503" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B4503" s="1" t="s">
         <v>4540</v>
-      </c>
-      <c r="B4503" s="1" t="s">
-        <v>4541</v>
       </c>
     </row>
     <row r="4504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4504" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B4504" s="1" t="s">
         <v>4542</v>
-      </c>
-      <c r="B4504" s="1" t="s">
-        <v>4543</v>
       </c>
     </row>
     <row r="4505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4505" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B4505" s="1" t="s">
         <v>4544</v>
-      </c>
-      <c r="B4505" s="1" t="s">
-        <v>4545</v>
       </c>
     </row>
     <row r="4506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4506" s="1" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="B4506" s="1" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="4507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4507" s="1" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="B4507" s="1" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="4508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4508" s="1" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B4508" s="1" t="s">
         <v>4551</v>
-      </c>
-      <c r="B4508" s="1" t="s">
-        <v>4552</v>
       </c>
     </row>
     <row r="4509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4509" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B4509" s="1" t="s">
         <v>4554</v>
-      </c>
-      <c r="B4509" s="1" t="s">
-        <v>4555</v>
       </c>
     </row>
     <row r="4510" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4510" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B4510" s="1" t="s">
         <v>4556</v>
-      </c>
-      <c r="B4510" s="1" t="s">
-        <v>4557</v>
       </c>
     </row>
     <row r="4511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4511" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B4511" s="1" t="s">
         <v>4558</v>
       </c>
-      <c r="B4511" s="1" t="s">
-        <v>4559</v>
+    </row>
+    <row r="4512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4512" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B4512" s="1" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4513" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B4513" s="1" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4514" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B4514" s="1" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4515" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B4515" s="1" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4516" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B4516" s="1" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4517" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B4517" s="1" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4518" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B4518" s="1" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4519" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B4519" s="1" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4520" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B4520" s="1" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4521" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B4521" s="1" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4522" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B4522" s="1" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4523" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B4523" s="1" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4524" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B4524" s="1" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4525" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B4525" s="1" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4526" s="1" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B4526" s="1" t="s">
+        <v>4595</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="22" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="20" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="18" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
-    <cfRule type="duplicateValues" dxfId="16" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="15" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3853:A3914">
-    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6758:A1048576 A210:A1632 A2:A24 A26:A85 A144 A1805:A1809 A3442:A3852 A3915:A4214">
-    <cfRule type="duplicateValues" dxfId="13" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1810:B3339">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1810:B3339">
+  <conditionalFormatting sqref="B3853:B3914">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3853:B3914">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="B6758:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3915:B4214 B3442:B3852">
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6758:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3915:B4214 B3442:B3852">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="B1561">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1123AB39-E026-4BE2-A10D-2DB9906405A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E9991-0CE0-4737-810E-3ACDCB181D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9050" uniqueCount="4596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9072" uniqueCount="4616">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13820,6 +13820,66 @@
   </si>
   <si>
     <t>Mắc bệnh phong tình</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Tật Ách ở Ngọ gặp Thất Sát, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Mắc tù tội hay tai nạn đao thương</t>
+  </si>
+  <si>
+    <t>Kình Dương, Hóa Kỵ đồng cung Tật Ách ở Tỵ</t>
+  </si>
+  <si>
+    <t>Mắt rất kém, hoặc mù lòa</t>
+  </si>
+  <si>
+    <t>Kình Dương, Hóa Kỵ đồng cung Tật Ách ở Hợi</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Tật Ách gặp Hỏa Tinh, Linh Tinh, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tự sát hoặc bị sát hại</t>
+  </si>
+  <si>
+    <t>Kình Dương, Bạch Hổ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Sẽ bị chó dại cắn</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Tật Ách gặp Hoa Cái, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bị phát ban hay lên đậu sởi rất đáng lo ngại. </t>
+  </si>
+  <si>
+    <t>Kình Hình</t>
+  </si>
+  <si>
+    <t>Kình Hình hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Dễ bị tai nạn, hỏng xe cộ, tai nạn xe cộ, máy móc</t>
+  </si>
+  <si>
+    <t>Kình Hình Không Kiếp</t>
+  </si>
+  <si>
+    <t>Kình Hình Không Kiếp hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bị sát hại, hoặc bị đánh đập rất tàn bạo</t>
+  </si>
+  <si>
+    <t>Kình Dương, Thái Tuế đồng cung Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắc kiện cáo, tù tội. </t>
+  </si>
+  <si>
+    <t>Mắc bệnh ở tai, thường có bệnh trĩ, nếu không, cũng có tỳ vết ở chân.</t>
   </si>
 </sst>
 </file>
@@ -14381,10 +14441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:B4526"/>
+  <dimension ref="A2:B4537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4504" workbookViewId="0">
-      <selection activeCell="E4524" sqref="E4524"/>
+    <sheetView tabSelected="1" topLeftCell="A4526" workbookViewId="0">
+      <selection activeCell="F4538" sqref="F4538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30832,12 +30892,12 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2057" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2057" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2057" s="1" t="s">
-        <v>2055</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
@@ -50590,6 +50650,94 @@
       </c>
       <c r="B4526" s="1" t="s">
         <v>4595</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4527" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B4527" s="1" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4528" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B4528" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4529" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B4529" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4530" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B4530" s="1" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4531" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B4531" s="1" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4532" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B4532" s="1" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4533" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B4533" s="1" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4534" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B4534" s="1" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4535" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B4535" s="1" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4536" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B4536" s="1" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4537" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B4537" s="1" t="s">
+        <v>4614</v>
       </c>
     </row>
   </sheetData>
@@ -50616,7 +50764,7 @@
   <conditionalFormatting sqref="A3853:A3914">
     <cfRule type="duplicateValues" dxfId="15" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6758:A1048576 A210:A1632 A2:A24 A26:A85 A144 A1805:A1809 A3442:A3852 A3915:A4214">
+  <conditionalFormatting sqref="A6757:A1048576 A210:A1632 A2:A24 A26:A85 A144 A1805:A1809 A3442:A3852 A3915:A4214">
     <cfRule type="duplicateValues" dxfId="14" priority="103"/>
     <cfRule type="duplicateValues" dxfId="13" priority="105"/>
   </conditionalFormatting>
@@ -50644,7 +50792,7 @@
   <conditionalFormatting sqref="B3853:B3914">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6758:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3915:B4214 B3442:B3852">
+  <conditionalFormatting sqref="B6757:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3915:B4214 B3442:B3852">
     <cfRule type="duplicateValues" dxfId="2" priority="12"/>
     <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E9991-0CE0-4737-810E-3ACDCB181D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4E1C78-B505-491A-A7D4-32A68162EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9072" uniqueCount="4616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9220" uniqueCount="4751">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11308,9 +11308,6 @@
   </si>
   <si>
     <t>Phá Quân, Thiên Hình, Hóa Kỵ, Kình Dương đồng cung tại Tật Ách</t>
-  </si>
-  <si>
-    <t>ình Dương, Hỏa Tinh, Linh Tinh, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
   </si>
   <si>
     <t>Kình Dương, Thiên Hình, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
@@ -13880,6 +13877,415 @@
   </si>
   <si>
     <t>Mắc bệnh ở tai, thường có bệnh trĩ, nếu không, cũng có tỳ vết ở chân.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lúc ít tuổi hay đau răng, đầu và mặt thường có tỳ vết. </t>
+  </si>
+  <si>
+    <t>Bị sét đánh ngã hay có thương tích</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Tật Ách ở Tỵ gặp Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Tật Ách ở Ngọ gặp Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Đà La, Thiên Mã đồng cung tại Tật Ách gặp Thiên Hình</t>
+  </si>
+  <si>
+    <t>Có tật ở chân tay, thường hay mắc tai nạn xe cộ</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Tật Ách gặp Thiên Riêu, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Nhiều bệnh tật, hay đau yếu luôn, đáng lo ngại nhất là bệnh đau mắt, đau ruột gan hay dạ dày.</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh sáng tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Linh Tinh sáng tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh tối tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Linh Tinh tối tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thân thể tráng kiện </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắc bệnh nóng lạnh. </t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Tật Ách ở Thìn gặp Linh Tinh, Kình Dương</t>
+  </si>
+  <si>
+    <t>Dễ chết đuối</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Tật Ách gặp Thiên Hình, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Mắc tai nạn về đao thương hay súng đạn</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Tật Ách gặp Thiên Hình, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Tật Ách gặp Thiên Hình, Thiên Việt, Phi Liêm</t>
+  </si>
+  <si>
+    <t>Bị sét đánh hay súng bắn.</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Tật Ách gặp Thiên Hình, Thiên Việt, Phi Liêm</t>
+  </si>
+  <si>
+    <t>Địa Không tối tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Địa Kiếp tối tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Xấu máu nên hay có mụn nhọt, chốc lở.</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Tật Ách gặp Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Tật Ách gặp Thiên Cơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có mụn nhọt hôi thối. </t>
+  </si>
+  <si>
+    <t>Địa Không, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Địa Kiếp, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Mắc tù tội hay bị đâm chém.</t>
+  </si>
+  <si>
+    <t>Địa Không, Thiên Việt đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Địa Kiếp, Thiên Việt đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bị đánh đập mang thương tích.</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Tật Ách gặp Thiên Việt, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Tật Ách gặp Thiên Việt, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Mắc tai nạn về đao thương rất đáng lo ngại.</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Tật Ách gặp Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Tật Ách gặp Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Địa Không, Lộc Tồn đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Địa Kiếp, Lộc Tồn đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Nếu có ám tật mới sống lâu</t>
+  </si>
+  <si>
+    <t>Quý Anh có Hóa Kỵ toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Quý Chị có Hóa Kỵ toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Hay đau bụng vặt, vì dương hư nên hiếm con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay đau bụng vặt, thường khó sinh đẻ. </t>
+  </si>
+  <si>
+    <t>Quý chị có Thái Dương toạ thủ cung Tật Ách gặp Hóa Kỵ, Thiên Hư</t>
+  </si>
+  <si>
+    <t>Mắc bệnh về khí huyết nên dễ hiếm muộn con.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hóa Kỵ, Thiên Hình đồng cung tại Tật Ách ở Hợi </t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Thiên Hình đồng cung tại Tật Ách ở Tý</t>
+  </si>
+  <si>
+    <t>Đau mắt nặng, có tật ở mắt, nếu không cũng mắc tù tội.</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ toạ thủ cung Tật Ách gặp Tang Môn, Điếu Khách</t>
+  </si>
+  <si>
+    <t>Dễ uất ức mà tự tử</t>
+  </si>
+  <si>
+    <t>Thiên Mã toạ thủ cung Tật Ách gặp Kiếp Sát, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Chết vì đâm chém</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắc tai nạn xe cộ hay vì ngã té mà có thương tích ở chân tay. </t>
+  </si>
+  <si>
+    <t>Kình Dương, Hỏa Tinh, Linh Tinh, Địa Không, Địa Kiếp đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thất Sát Hóa Kỵ Đà La Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thất Sát Hóa Kỵ Đà La Thái Tuế hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Tuế toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Hay mắc kiện cáo, tù tội, nếu không cũng bị đánh đập.</t>
+  </si>
+  <si>
+    <t>Bộ máy tiêu hóa không được lành mạnh vì ăn uống mà mắc bệnh khó chữa</t>
+  </si>
+  <si>
+    <t>Tang Môn toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Mắc bệnh thuộc về khí huyết, có thế là thiếu máu hay căng mạch máu. Tim yếu, đàn bà khó đẻ.</t>
+  </si>
+  <si>
+    <t>Tử Vi, Tang Môn đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khó thoát được tù tội. </t>
+  </si>
+  <si>
+    <t>Hổ Khốc Hư Tang</t>
+  </si>
+  <si>
+    <t>Hổ Khốc Hư Tang hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Bị ho lao</t>
+  </si>
+  <si>
+    <t>Tang Điếu</t>
+  </si>
+  <si>
+    <t>Tang Điếu hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngã đau, có thương tích. </t>
+  </si>
+  <si>
+    <t>Bạch Hổ toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Máu xấu, hay đau xương cốt</t>
+  </si>
+  <si>
+    <t>Hổ Kình Đà</t>
+  </si>
+  <si>
+    <t>Hổ Kình Đà hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ bị thú dữ cắn rất nguy hiểm </t>
+  </si>
+  <si>
+    <t>Hổ Riêu</t>
+  </si>
+  <si>
+    <t>Hổ Riêu hội chiếu tai Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ bị chó dại cắn. </t>
+  </si>
+  <si>
+    <t>Thiên Riêu, Bạch Hổ đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Phổi yếu, hay ho vặt, thận kém.</t>
+  </si>
+  <si>
+    <t>Thận suy, răng xấu, hay bị sâu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mắc bệnh phong sang, thường phải châm chích, hay bị dao kéo đụng chạm rất đau đớn. </t>
+  </si>
+  <si>
+    <t>Thiên Hình, Kình Dương, Đẩu Quân đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Dễ bị mổ xẻ</t>
+  </si>
+  <si>
+    <t>Thiên Hình toạ thủ cung Tật Ách gặp Thiên Riêu, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Mắc bệnh phong tình vì cuộc sống phóng đãng</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ, Địa Kiếp, Thiên Hình đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Mắc tai nạn đao thương hay bị giam cầm.</t>
+  </si>
+  <si>
+    <t>Long Trì toạ thủ cung Tật Ách gặp Thái Âm, Thất Sát</t>
+  </si>
+  <si>
+    <t>Dễ yếu bụng, hệ tiêu hóa</t>
+  </si>
+  <si>
+    <t>Long Trì toạ thủ cung Tật Ách gặp Thái Dương, Thất Sát</t>
+  </si>
+  <si>
+    <t>Dễ đau đầu, yếu thần kinh</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Tim yếu, bệnh ở hạ bộ.</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan đồng cung tại Tật Ách gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cuộc sống phóng túng nên bị mắc bệnh phong tình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dễ té ngã có thương tích. </t>
+  </si>
+  <si>
+    <t>Quan Phù, Kình Dương đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bị sét đánh hay điện giật, nếu không cũng khó tránh thoát được tù tội. </t>
+  </si>
+  <si>
+    <t>Quý Chị có Tam Thai tọa thủ cung Tật Ách gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Có bệnh đau tử cung</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan đồng cung tại Tật Ách gặp Kình Dương, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Dễ mắc bệnh liên quan đến việc sinh sản</t>
+  </si>
+  <si>
+    <t>Sức khỏe rất kém</t>
+  </si>
+  <si>
+    <t>Bệnh Phù toạ thủ cung Tật Ách gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thường mắc ác bệnh</t>
+  </si>
+  <si>
+    <t>Bệnh Phù toạ thủ cung Tật Ách gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Bệnh Phù toạ thủ cung Tật Ách gặp Đại Hao, Hỏa Tinh Linh Tinh</t>
+  </si>
+  <si>
+    <t>Bệnh tật rất lo ngại khó chữa, tốn tiền, sức khỏe kém nhiều</t>
+  </si>
+  <si>
+    <t>Bệnh Phù toạ thủ cung Tật Ách gặp Tiểu Hao, Hỏa Tinh Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cung Tật Ách gặp Kình Dương, Đà La, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cung Tật Ách gặp Đại Hao, Kình Dương, Đà La, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thận suy, hay đau răng, bộ tiêu hóa không được lành mạnh. </t>
+  </si>
+  <si>
+    <t>Tang Môn, Thiên Riêu đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Dễ té đau, có thương tích.</t>
+  </si>
+  <si>
+    <t>Thiên Riêu toạ thủ cung Tật Ách gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Dễ đau yếu thần kinh do vấn đề tâm linh quấy phá</t>
+  </si>
+  <si>
+    <t>Mắc tai nạn sông nước</t>
+  </si>
+  <si>
+    <t>Quý Chị có Lưu Hà toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thường khó đẻ, hay gặp nhiều sự nguy hiểm trước khi lâm bồn. </t>
+  </si>
+  <si>
+    <t>Lưu Hà toạ thủ cung Tật Ách gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Chết bất đắc kỳ tử.</t>
+  </si>
+  <si>
+    <t>Lưu Hà, Địa Kiếp, Thất Sát đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chết vì tai nạn xe cộ hay bị đâm chém. </t>
+  </si>
+  <si>
+    <t>Hoa Cái toạ thủ cung Tật Ách gặp Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Dễ mắc bệnh phong tình</t>
+  </si>
+  <si>
+    <t>Mắc bệnh ở hậu môn, hay đau bụng</t>
+  </si>
+  <si>
+    <t>Binh Hình Việt</t>
+  </si>
+  <si>
+    <t>Bị kẻ thù đâm chém.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thường có tỳ vết ở hậu môn, hay đau bụng, khi đau yếu thường hay mắc tai nạn, không gặp được người giúp đỡ. </t>
+  </si>
+  <si>
+    <t>Da mặt vàng, có bệnh thuộc về khí huyết hay bệnh
+ngoài da</t>
+  </si>
+  <si>
+    <t>Vũ Khúc, Thiên Khôi đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Đầu thường có tật</t>
+  </si>
+  <si>
+    <t>Thiên Khôi, Thiên Hình đồng cung tại Tật Ách</t>
   </si>
 </sst>
 </file>
@@ -14441,10 +14847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:B4537"/>
+  <dimension ref="A2:B4611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4526" workbookViewId="0">
-      <selection activeCell="F4538" sqref="F4538"/>
+    <sheetView tabSelected="1" topLeftCell="A4600" workbookViewId="0">
+      <selection activeCell="H4602" sqref="H4602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14476,12 +14882,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14489,7 +14895,7 @@
         <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14505,7 +14911,7 @@
         <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -15193,7 +15599,7 @@
         <v>230</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16401,7 +16807,7 @@
         <v>381</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>381</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -16409,7 +16815,7 @@
         <v>382</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>382</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -17033,7 +17439,7 @@
         <v>460</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -18225,7 +18631,7 @@
         <v>604</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -20609,7 +21015,7 @@
         <v>901</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20833,7 +21239,7 @@
         <v>928</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -22441,7 +22847,7 @@
         <v>1129</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1001" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22937,7 +23343,7 @@
         <v>1191</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1063" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23689,7 +24095,7 @@
         <v>1285</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -25177,7 +25583,7 @@
         <v>1452</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
@@ -25697,7 +26103,7 @@
         <v>1517</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26929,7 +27335,7 @@
         <v>37</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
@@ -27361,7 +27767,7 @@
         <v>85</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>85</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
@@ -27372,12 +27778,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>87</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
@@ -28156,12 +28562,12 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
         <v>1713</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>1713</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
@@ -29388,12 +29794,12 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1869" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
         <v>1867</v>
       </c>
       <c r="B1869" s="1" t="s">
-        <v>1867</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
@@ -29577,7 +29983,7 @@
         <v>1890</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>1890</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
@@ -30897,7 +31303,7 @@
         <v>2055</v>
       </c>
       <c r="B2057" s="1" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
@@ -32393,7 +32799,7 @@
         <v>2242</v>
       </c>
       <c r="B2244" s="1" t="s">
-        <v>2242</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="2245" spans="1:2" x14ac:dyDescent="0.25">
@@ -33905,7 +34311,7 @@
         <v>3718</v>
       </c>
       <c r="B2433" s="1" t="s">
-        <v>3718</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="2434" spans="1:2" x14ac:dyDescent="0.25">
@@ -34217,7 +34623,7 @@
         <v>2349</v>
       </c>
       <c r="B2472" s="1" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="2473" spans="1:2" x14ac:dyDescent="0.25">
@@ -34265,7 +34671,7 @@
         <v>2355</v>
       </c>
       <c r="B2478" s="1" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="2479" spans="1:2" x14ac:dyDescent="0.25">
@@ -34977,7 +35383,7 @@
         <v>2444</v>
       </c>
       <c r="B2567" s="1" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
@@ -34993,7 +35399,7 @@
         <v>2446</v>
       </c>
       <c r="B2569" s="1" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="2570" spans="1:2" x14ac:dyDescent="0.25">
@@ -35009,7 +35415,7 @@
         <v>2448</v>
       </c>
       <c r="B2571" s="1" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
@@ -35025,7 +35431,7 @@
         <v>2450</v>
       </c>
       <c r="B2573" s="1" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
@@ -35041,7 +35447,7 @@
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
@@ -35057,7 +35463,7 @@
         <v>2454</v>
       </c>
       <c r="B2577" s="1" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="2578" spans="1:2" x14ac:dyDescent="0.25">
@@ -35193,7 +35599,7 @@
         <v>2471</v>
       </c>
       <c r="B2594" s="1" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="2595" spans="1:2" x14ac:dyDescent="0.25">
@@ -35257,7 +35663,7 @@
         <v>2479</v>
       </c>
       <c r="B2602" s="1" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="2603" spans="1:2" x14ac:dyDescent="0.25">
@@ -35265,7 +35671,7 @@
         <v>2480</v>
       </c>
       <c r="B2603" s="1" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="2604" spans="1:2" x14ac:dyDescent="0.25">
@@ -35345,7 +35751,7 @@
         <v>2490</v>
       </c>
       <c r="B2613" s="1" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="2614" spans="1:2" x14ac:dyDescent="0.25">
@@ -41017,7 +41423,7 @@
         <v>3199</v>
       </c>
       <c r="B3322" s="1" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="3323" spans="1:2" x14ac:dyDescent="0.25">
@@ -44353,7 +44759,7 @@
         <v>3737</v>
       </c>
       <c r="B3739" s="1" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="3740" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44361,7 +44767,7 @@
         <v>3738</v>
       </c>
       <c r="B3740" s="1" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="3741" spans="1:2" x14ac:dyDescent="0.25">
@@ -44481,7 +44887,7 @@
         <v>3753</v>
       </c>
       <c r="B3755" s="1" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="3756" spans="1:2" x14ac:dyDescent="0.25">
@@ -44534,5802 +44940,5802 @@
     </row>
     <row r="3762" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3762" s="1" t="s">
-        <v>3760</v>
+        <v>4671</v>
       </c>
       <c r="B3762" s="1" t="s">
-        <v>3760</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="3763" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3763" s="1" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B3763" s="1" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="3764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3764" s="1" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="B3764" s="1" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="3765" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3765" s="1" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="B3765" s="1" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="3766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3766" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3766" s="1" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3767" s="1" t="s">
         <v>3764</v>
       </c>
-      <c r="B3766" s="1" t="s">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="3767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3767" s="1" t="s">
-        <v>3765</v>
-      </c>
       <c r="B3767" s="1" t="s">
-        <v>3765</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="3768" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3768" s="1" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="B3768" s="1" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="3769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3769" s="1" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="B3769" s="1" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="3770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3770" s="1" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="B3770" s="1" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="3771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3771" s="1" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="B3771" s="1" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="3772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3772" s="1" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="B3772" s="1" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="3773" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3773" s="1" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="B3773" s="1" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="3774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3774" s="1" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="B3774" s="1" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="3775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3775" s="1" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="B3775" s="1" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="3776" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3776" s="1" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="B3776" s="1" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="3777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3777" s="1" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="B3777" s="1" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="3778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3778" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="B3778" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="3779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3779" s="1" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="B3779" s="1" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="3780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3780" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="B3780" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="3781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3781" s="1" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="B3781" s="1" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="3782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3782" s="1" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="B3782" s="1" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="3783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3783" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="B3783" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="3784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3784" s="1" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="B3784" s="1" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="3785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3785" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="B3785" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="3786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3786" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="B3786" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="3787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3787" s="1" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="B3787" s="1" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="3788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3788" s="1" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="B3788" s="1" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="3789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3789" s="1" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="B3789" s="1" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="3790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3790" s="1" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="B3790" s="1" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="3791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3791" s="1" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="B3791" s="1" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="3792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3792" s="1" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="B3792" s="1" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="3793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3793" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="B3793" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="3794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3794" s="1" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="B3794" s="1" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="3795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3795" s="1" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="B3795" s="1" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="3796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3796" s="1" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="B3796" s="1" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="3797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3797" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="B3797" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="3798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3798" s="1" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="B3798" s="1" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="3799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3799" s="1" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="B3799" s="1" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="3800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3800" s="1" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="B3800" s="1" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="3801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3801" s="1" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="B3801" s="1" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="3802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3802" s="1" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="B3802" s="1" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3803" s="1" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="B3803" s="1" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3804" s="1" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="B3804" s="1" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="3805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3805" s="1" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="B3805" s="1" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="3806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3806" s="1" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="B3806" s="1" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="3807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3807" s="1" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B3807" s="1" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="3808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3808" s="1" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B3808" s="1" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3809" s="1" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="B3809" s="1" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3810" s="1" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B3810" s="1" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="3811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3811" s="1" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="B3811" s="1" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="3812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3812" s="1" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B3812" s="1" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="3813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3813" s="1" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B3813" s="1" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3814" s="1" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="B3814" s="1" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3815" s="1" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B3815" s="1" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3816" s="1" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B3816" s="1" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3817" s="1" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B3817" s="1" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3818" s="1" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="B3818" s="1" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3819" s="1" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="B3819" s="1" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="3820" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3820" s="1" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="B3820" s="1" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3821" s="1" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="B3821" s="1" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3822" s="1" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="B3822" s="1" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3823" s="1" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="B3823" s="1" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3824" s="1" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="B3824" s="1" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3825" s="1" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="B3825" s="1" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3826" s="1" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B3826" s="1" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3827" s="1" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="B3827" s="1" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3828" s="1" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="B3828" s="1" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3829" s="1" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B3829" s="1" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3830" s="1" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="B3830" s="1" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3831" s="1" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="B3831" s="1" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3832" s="1" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B3832" s="1" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3833" s="1" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="B3833" s="1" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3834" s="1" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="B3834" s="1" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3835" s="1" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="B3835" s="1" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3836" s="1" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="B3836" s="1" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3837" s="1" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B3837" s="1" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3838" s="1" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="B3838" s="1" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3839" s="1" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B3839" s="1" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3840" s="1" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="B3840" s="1" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3841" s="1" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B3841" s="1" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3842" s="1" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B3842" s="1" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3843" s="1" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B3843" s="1" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3844" s="1" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="B3844" s="1" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3845" s="1" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="B3845" s="1" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3846" s="1" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="B3846" s="1" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3847" s="1" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="B3847" s="1" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3848" s="1" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="B3848" s="1" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3849" s="1" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="B3849" s="1" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3850" s="1" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="B3850" s="1" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3851" s="1" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="B3851" s="1" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3852" s="1" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="B3852" s="1" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3853" s="1" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B3853" s="1" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3854" s="1" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B3854" s="1" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3855" s="1" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B3855" s="1" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3856" s="1" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="B3856" s="1" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3857" s="1" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="B3857" s="1" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3858" s="1" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B3858" s="1" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3859" s="1" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B3859" s="1" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3860" s="1" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="B3860" s="1" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3861" s="1" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="B3861" s="1" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3862" s="1" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="B3862" s="1" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3863" s="1" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B3863" s="1" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3864" s="1" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B3864" s="1" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3865" s="1" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B3865" s="1" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3866" s="1" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B3866" s="1" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3867" s="1" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="B3867" s="1" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3868" s="1" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="B3868" s="1" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3869" s="1" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="B3869" s="1" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3870" s="1" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B3870" s="1" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3871" s="1" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="B3871" s="1" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3872" s="1" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B3872" s="1" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3873" s="1" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="B3873" s="1" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3874" s="1" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="B3874" s="1" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3875" s="1" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="B3875" s="1" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3876" s="1" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B3876" s="1" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3877" s="1" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="B3877" s="1" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3878" s="1" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B3878" s="1" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3879" s="1" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B3879" s="1" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3880" s="1" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B3880" s="1" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3881" s="1" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="B3881" s="1" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3882" s="1" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="B3882" s="1" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3883" s="1" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="B3883" s="1" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3884" s="1" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="B3884" s="1" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3885" s="1" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="B3885" s="1" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3886" s="1" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="B3886" s="1" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3887" s="1" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="B3887" s="1" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3888" s="1" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="B3888" s="1" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3889" s="1" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="B3889" s="1" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3890" s="1" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="B3890" s="1" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3891" s="1" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="B3891" s="1" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="3892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3892" s="1" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="B3892" s="1" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="3893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3893" s="1" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="B3893" s="1" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="3894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3894" s="1" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="B3894" s="1" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="3895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3895" s="1" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="B3895" s="1" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="3896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3896" s="1" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="B3896" s="1" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="3897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3897" s="1" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="B3897" s="1" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="3898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3898" s="1" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B3898" s="1" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="3899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3899" s="1" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B3899" s="1" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="3900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3900" s="1" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="B3900" s="1" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="3901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3901" s="1" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B3901" s="1" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="3902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3902" s="1" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B3902" s="1" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="3903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3903" s="1" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B3903" s="1" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3904" s="1" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="B3904" s="1" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="3905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3905" s="1" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B3905" s="1" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="3906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3906" s="1" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B3906" s="1" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="3907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3907" s="1" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B3907" s="1" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="3908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3908" s="1" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="B3908" s="1" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="3909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3909" s="1" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="B3909" s="1" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="3910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3910" s="1" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B3910" s="1" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="3911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3911" s="1" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="B3911" s="1" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="3912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3912" s="1" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="B3912" s="1" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="3913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3913" s="1" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="B3913" s="1" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3914" s="1" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B3914" s="1" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="3915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3915" s="1" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B3915" s="1" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="3916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3916" s="1" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="B3916" s="1" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="3917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3917" s="1" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="B3917" s="1" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="3918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3918" s="1" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="B3918" s="1" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="3919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3919" s="1" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="B3919" s="1" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="3920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3920" s="1" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="B3920" s="1" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="3921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3921" s="1" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B3921" s="1" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="3922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3922" s="1" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="B3922" s="1" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="3923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3923" s="1" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="B3923" s="1" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3924" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B3924" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="3925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3925" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B3925" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="3926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3926" s="1" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="B3926" s="1" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="3927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3927" s="1" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="B3927" s="1" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="3928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3928" s="1" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="B3928" s="1" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="3929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3929" s="1" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="B3929" s="1" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="3930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3930" s="1" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="B3930" s="1" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3931" s="1" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B3931" s="1" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="3932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3932" s="1" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B3932" s="1" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="3933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3933" s="1" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="B3933" s="1" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="3934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3934" s="1" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B3934" s="1" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="3935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3935" s="1" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B3935" s="1" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="3936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3936" s="1" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="B3936" s="1" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="3937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3937" s="1" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="B3937" s="1" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="3938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3938" s="1" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="B3938" s="1" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="3939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3939" s="1" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="B3939" s="1" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3940" s="1" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="B3940" s="1" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3941" s="1" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="B3941" s="1" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="3942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3942" s="1" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="B3942" s="1" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="3943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3943" s="1" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="B3943" s="1" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="3944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3944" s="1" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="B3944" s="1" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="3945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3945" s="1" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="B3945" s="1" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="3946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3946" s="1" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B3946" s="1" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="3947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3947" s="1" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="B3947" s="1" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="3948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3948" s="1" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="B3948" s="1" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="3949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3949" s="1" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="B3949" s="1" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="3950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3950" s="1" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="B3950" s="1" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="3951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3951" s="1" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="B3951" s="1" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="3952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3952" s="1" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="B3952" s="1" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="3953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3953" s="1" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="B3953" s="1" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="3954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3954" s="1" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="B3954" s="1" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="3955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3955" s="1" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="B3955" s="1" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="3956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3956" s="1" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="B3956" s="1" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="3957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3957" s="1" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="B3957" s="1" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="3958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3958" s="1" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B3958" s="1" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="3959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3959" s="1" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="B3959" s="1" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="3960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3960" s="1" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="B3960" s="1" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="3961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3961" s="1" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B3961" s="1" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="3962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3962" s="1" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="B3962" s="1" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="3963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3963" s="1" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B3963" s="1" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="3964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3964" s="1" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="B3964" s="1" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="3965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3965" s="1" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="B3965" s="1" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="3966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3966" s="1" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="B3966" s="1" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="3967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3967" s="1" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="B3967" s="1" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="3968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3968" s="1" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B3968" s="1" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="3969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3969" s="1" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="B3969" s="1" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="3970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3970" s="1" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="B3970" s="1" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="3971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3971" s="1" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="B3971" s="1" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="3972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3972" s="1" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="B3972" s="1" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="3973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3973" s="1" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="B3973" s="1" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="3974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3974" s="1" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="B3974" s="1" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="3975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3975" s="1" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="B3975" s="1" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="3976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3976" s="1" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="B3976" s="1" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="3977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3977" s="1" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="B3977" s="1" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="3978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3978" s="1" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="B3978" s="1" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="3979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3979" s="1" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="B3979" s="1" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="3980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3980" s="1" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="B3980" s="1" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="3981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3981" s="1" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="B3981" s="1" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="3982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3982" s="1" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B3982" s="1" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="3983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3983" s="1" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="B3983" s="1" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="3984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3984" s="1" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="B3984" s="1" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="3985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3985" s="1" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="B3985" s="1" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="3986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3986" s="1" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="B3986" s="1" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="3987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3987" s="1" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="B3987" s="1" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="3988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3988" s="1" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="B3988" s="1" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="3989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3989" s="1" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="B3989" s="1" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="3990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3990" s="1" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="B3990" s="1" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="3991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3991" s="1" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="B3991" s="1" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="3992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3992" s="1" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B3992" s="1" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="3993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3993" s="1" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B3993" s="1" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="3994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3994" s="1" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B3994" s="1" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="3995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3995" s="1" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="B3995" s="1" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="3996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3996" s="1" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="B3996" s="1" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="3997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3997" s="1" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="B3997" s="1" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="3998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3998" s="1" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B3998" s="1" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="3999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3999" s="1" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B3999" s="1" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="4000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4000" s="1" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B4000" s="1" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="4001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4001" s="1" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B4001" s="1" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="4002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4002" s="1" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="B4002" s="1" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="4003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4003" s="1" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B4003" s="1" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4004" s="1" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B4004" s="1" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="4005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4005" s="1" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B4005" s="1" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="4006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4006" s="1" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B4006" s="1" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="4007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4007" s="1" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B4007" s="1" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="4008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4008" s="1" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B4008" s="1" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="4009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4009" s="1" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B4009" s="1" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="4010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4010" s="1" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B4010" s="1" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="4011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4011" s="1" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B4011" s="1" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="4012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4012" s="1" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B4012" s="1" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="4013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4013" s="1" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B4013" s="1" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="4014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4014" s="1" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B4014" s="1" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="4015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4015" s="1" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B4015" s="1" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="4016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4016" s="1" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B4016" s="1" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="4017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4017" s="1" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B4017" s="1" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="4018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4018" s="1" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="B4018" s="1" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="4019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4019" s="1" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="B4019" s="1" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="4020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4020" s="1" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="B4020" s="1" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="4021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4021" s="1" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="B4021" s="1" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="4022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4022" s="1" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="B4022" s="1" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="4023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4023" s="1" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="B4023" s="1" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="4024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4024" s="1" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="B4024" s="1" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="4025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4025" s="1" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="B4025" s="1" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="4026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4026" s="1" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B4026" s="1" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="4027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4027" s="1" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="B4027" s="1" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="4028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4028" s="1" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="B4028" s="1" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="4029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4029" s="1" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="B4029" s="1" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="4030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4030" s="1" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B4030" s="1" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="4031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4031" s="1" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B4031" s="1" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="4032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4032" s="1" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="B4032" s="1" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="4033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4033" s="1" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B4033" s="1" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="4034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4034" s="1" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="B4034" s="1" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="4035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4035" s="1" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="B4035" s="1" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="4036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4036" s="1" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="B4036" s="1" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="4037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4037" s="1" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="B4037" s="1" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="4038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4038" s="1" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B4038" s="1" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="4039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4039" s="1" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="B4039" s="1" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="4040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4040" s="1" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="B4040" s="1" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="4041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4041" s="1" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="B4041" s="1" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="4042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4042" s="1" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="B4042" s="1" t="s">
-        <v>4040</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="4043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4043" s="1" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="B4043" s="1" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="4044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4044" s="1" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B4044" s="1" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="4045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4045" s="1" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="B4045" s="1" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="4046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4046" s="1" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B4046" s="1" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="4047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4047" s="1" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="B4047" s="1" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="4048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4048" s="1" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="B4048" s="1" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="4049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4049" s="1" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="B4049" s="1" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="4050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4050" s="1" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="B4050" s="1" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="4051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4051" s="1" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="B4051" s="1" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="4052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4052" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B4052" s="1" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4053" s="1" t="s">
         <v>4050</v>
       </c>
-      <c r="B4052" s="1" t="s">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="4053" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4053" s="1" t="s">
-        <v>4051</v>
-      </c>
       <c r="B4053" s="1" t="s">
-        <v>4051</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="4054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4054" s="1" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="B4054" s="1" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="4055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4055" s="1" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="B4055" s="1" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="4056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4056" s="1" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="B4056" s="1" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="4057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4057" s="1" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B4057" s="1" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="4058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4058" s="1" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="B4058" s="1" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="4059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4059" s="1" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="B4059" s="1" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="4060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4060" s="1" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="B4060" s="1" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="4061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4061" s="1" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="B4061" s="1" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="4062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4062" s="1" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="B4062" s="1" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="4063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4063" s="1" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="B4063" s="1" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="4064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4064" s="1" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B4064" s="1" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="4065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4065" s="1" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="B4065" s="1" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="4066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4066" s="1" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="B4066" s="1" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="4067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4067" s="1" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="B4067" s="1" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="4068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4068" s="1" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="B4068" s="1" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="4069" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4069" s="1" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="B4069" s="1" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="4070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4070" s="1" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B4070" s="1" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="4071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4071" s="1" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="B4071" s="1" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="4072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4072" s="1" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="B4072" s="1" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="4073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4073" s="1" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B4073" s="1" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="4074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4074" s="1" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="B4074" s="1" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="4075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4075" s="1" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="B4075" s="1" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="4076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4076" s="1" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B4076" s="1" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="4077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4077" s="1" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B4077" s="1" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="4078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4078" s="1" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="B4078" s="1" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="4079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4079" s="1" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="B4079" s="1" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="4080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4080" s="1" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="B4080" s="1" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="4081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4081" s="1" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="B4081" s="1" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="4082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4082" s="1" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="B4082" s="1" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="4083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4083" s="1" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="B4083" s="1" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="4084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4084" s="1" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="B4084" s="1" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="4085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4085" s="1" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="B4085" s="1" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="4086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4086" s="1" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B4086" s="1" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="4087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4087" s="1" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B4087" s="1" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="4088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4088" s="1" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="B4088" s="1" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="4089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4089" s="1" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="B4089" s="1" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="4090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4090" s="1" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="B4090" s="1" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="4091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4091" s="1" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="B4091" s="1" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="4092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4092" s="1" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B4092" s="1" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="4093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4093" s="1" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="B4093" s="1" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="4094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4094" s="1" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="B4094" s="1" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="4095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4095" s="1" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="B4095" s="1" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="4096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4096" s="1" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="B4096" s="1" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="4097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4097" s="1" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="B4097" s="1" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="4098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4098" s="1" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="B4098" s="1" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="4099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4099" s="1" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="B4099" s="1" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="4100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4100" s="1" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="B4100" s="1" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="4101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4101" s="1" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="B4101" s="1" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="4102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4102" s="1" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="B4102" s="1" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="4103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4103" s="1" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B4103" s="1" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="4104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4104" s="1" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B4104" s="1" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="4105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4105" s="1" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B4105" s="1" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="4106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4106" s="1" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B4106" s="1" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="4107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4107" s="1" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="B4107" s="1" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="4108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4108" s="1" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="B4108" s="1" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="4109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4109" s="1" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="B4109" s="1" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="4110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4110" s="1" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B4110" s="1" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="4111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4111" s="1" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B4111" s="1" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="4112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4112" s="1" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B4112" s="1" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="4113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4113" s="1" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B4113" s="1" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="4114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4114" s="1" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B4114" s="1" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="4115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4115" s="1" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="B4115" s="1" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="4116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4116" s="1" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="B4116" s="1" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="4117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4117" s="1" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="B4117" s="1" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="4118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4118" s="1" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="B4118" s="1" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="4119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4119" s="1" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="B4119" s="1" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="4120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4120" s="1" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="B4120" s="1" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="4121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4121" s="1" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="B4121" s="1" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="4122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4122" s="1" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="B4122" s="1" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="4123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4123" s="1" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="B4123" s="1" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="4124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4124" s="1" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="B4124" s="1" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="4125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4125" s="1" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="B4125" s="1" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="4126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4126" s="1" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="B4126" s="1" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="4127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4127" s="1" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="B4127" s="1" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="4128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4128" s="1" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="B4128" s="1" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="4129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4129" s="1" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B4129" s="1" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="4130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4130" s="1" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="B4130" s="1" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="4131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4131" s="1" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="B4131" s="1" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="4132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4132" s="1" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="B4132" s="1" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="4133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4133" s="1" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="B4133" s="1" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="4134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4134" s="1" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="B4134" s="1" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="4135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4135" s="1" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="B4135" s="1" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="4136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4136" s="1" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="B4136" s="1" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="4137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4137" s="1" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="B4137" s="1" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="4138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4138" s="1" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="B4138" s="1" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="4139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4139" s="1" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="B4139" s="1" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="4140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4140" s="1" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="B4140" s="1" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="4141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4141" s="1" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="B4141" s="1" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="4142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4142" s="1" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="B4142" s="1" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="4143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4143" s="1" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="B4143" s="1" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="4144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4144" s="1" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="B4144" s="1" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="4145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4145" s="1" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="B4145" s="1" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="4146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4146" s="1" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="B4146" s="1" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="4147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4147" s="1" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="B4147" s="1" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="4148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4148" s="1" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="B4148" s="1" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="4149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4149" s="1" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="B4149" s="1" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="4150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4150" s="1" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="B4150" s="1" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="4151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4151" s="1" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="B4151" s="1" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="4152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4152" s="1" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="B4152" s="1" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="4153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4153" s="1" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="B4153" s="1" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="4154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4154" s="1" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="B4154" s="1" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="4155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4155" s="1" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="B4155" s="1" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="4156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4156" s="1" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="B4156" s="1" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="4157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4157" s="1" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="B4157" s="1" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4158" s="1" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="B4158" s="1" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="4159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4159" s="1" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="B4159" s="1" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="4160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4160" s="1" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="B4160" s="1" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="4161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4161" s="1" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="B4161" s="1" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="4162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4162" s="1" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="B4162" s="1" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="4163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4163" s="1" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="B4163" s="1" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="4164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4164" s="1" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="B4164" s="1" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="4165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4165" s="1" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B4165" s="1" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="4166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4166" s="1" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B4166" s="1" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="4167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4167" s="1" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B4167" s="1" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="4168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4168" s="1" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="B4168" s="1" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="4169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4169" s="1" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="B4169" s="1" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="4170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4170" s="1" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="B4170" s="1" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="4171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4171" s="1" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="B4171" s="1" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="4172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4172" s="1" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="B4172" s="1" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="4173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4173" s="1" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="B4173" s="1" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="4174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4174" s="1" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B4174" s="1" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="4175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4175" s="1" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="B4175" s="1" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="4176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4176" s="1" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="B4176" s="1" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="4177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4177" s="1" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="B4177" s="1" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="4178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4178" s="1" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="B4178" s="1" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="4179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4179" s="1" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="B4179" s="1" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="4180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4180" s="1" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B4180" s="1" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="4181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4181" s="1" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="B4181" s="1" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="4182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4182" s="1" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="B4182" s="1" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="4183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4183" s="1" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="B4183" s="1" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="4184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4184" s="1" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="B4184" s="1" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="4185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4185" s="1" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B4185" s="1" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="4186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4186" s="1" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="B4186" s="1" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="4187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4187" s="1" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="B4187" s="1" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="4188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4188" s="1" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="B4188" s="1" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="4189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4189" s="1" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B4189" s="1" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="4190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4190" s="1" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="B4190" s="1" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="4191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4191" s="1" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="B4191" s="1" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="4192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4192" s="1" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="B4192" s="1" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="4193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4193" s="1" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="B4193" s="1" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="4194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4194" s="1" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="B4194" s="1" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="4195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4195" s="1" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="B4195" s="1" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="4196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4196" s="1" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="B4196" s="1" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="4197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4197" s="1" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="B4197" s="1" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="4198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4198" s="1" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B4198" s="1" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="4199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4199" s="1" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="B4199" s="1" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="4200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4200" s="1" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="B4200" s="1" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="4201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4201" s="1" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="B4201" s="1" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="4202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4202" s="1" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="B4202" s="1" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="4203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4203" s="1" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="B4203" s="1" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="4204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4204" s="1" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="B4204" s="1" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="4205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4205" s="1" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B4205" s="1" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="4206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4206" s="1" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B4206" s="1" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="4207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4207" s="1" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B4207" s="1" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="4208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4208" s="1" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="B4208" s="1" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="4209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4209" s="1" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="B4209" s="1" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="4210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4210" s="1" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="B4210" s="1" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="4211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4211" s="1" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B4211" s="1" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="4212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4212" s="1" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="B4212" s="1" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="4213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4213" s="1" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="B4213" s="1" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="4214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4214" s="1" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="B4214" s="1" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="4215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4215" s="1" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="B4215" s="1" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="4216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4216" s="1" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="B4216" s="1" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4217" s="1" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B4217" s="1" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="4218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4218" s="1" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B4218" s="1" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="4219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4219" s="1" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="B4219" s="1" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="4220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4220" s="1" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="B4220" s="1" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4221" s="1" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B4221" s="1" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="4222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4222" s="1" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="B4222" s="1" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4223" s="1" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="B4223" s="1" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4224" s="1" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B4224" s="1" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4225" s="1" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B4225" s="1" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4226" s="1" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="B4226" s="1" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4227" s="1" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="B4227" s="1" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4228" s="1" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="B4228" s="1" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4229" s="1" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B4229" s="1" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4230" s="1" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="B4230" s="1" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4231" s="1" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B4231" s="1" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4232" s="1" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4233" s="1" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B4233" s="1" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4234" s="1" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4235" s="1" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B4235" s="1" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4236" s="1" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="B4236" s="1" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4237" s="1" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B4237" s="1" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4238" s="1" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="B4238" s="1" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4239" s="1" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B4239" s="1" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4240" s="1" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="B4240" s="1" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4241" s="1" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B4241" s="1" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4242" s="1" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="B4242" s="1" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="B4243" s="1" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4244" s="1" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="B4244" s="1" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4245" s="1" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="B4245" s="1" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4246" s="1" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="B4246" s="1" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4247" s="1" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="B4247" s="1" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4248" s="1" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="B4248" s="1" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4249" s="1" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="B4249" s="1" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4250" s="1" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="B4250" s="1" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4251" s="1" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="B4251" s="1" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4252" s="1" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="B4252" s="1" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4253" s="1" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="B4253" s="1" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4254" s="1" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="B4254" s="1" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4255" s="1" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="B4255" s="1" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4256" s="1" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="B4256" s="1" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4257" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" s="1" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4258" s="1" t="s">
         <v>4255</v>
       </c>
-      <c r="B4257" s="1" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4258" s="1" t="s">
-        <v>4256</v>
-      </c>
       <c r="B4258" s="1" t="s">
-        <v>4256</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4259" s="1" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="B4259" s="1" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4260" s="1" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="B4260" s="1" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4261" s="1" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B4261" s="1" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4262" s="1" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="B4262" s="1" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4263" s="1" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="B4263" s="1" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4264" s="1" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="B4264" s="1" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4265" s="1" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B4265" s="1" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4266" s="1" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="B4266" s="1" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4267" s="1" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="B4267" s="1" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4268" s="1" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="B4268" s="1" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4269" s="1" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="B4269" s="1" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4270" s="1" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="B4270" s="1" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4271" s="1" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="B4271" s="1" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4272" s="1" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="B4272" s="1" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4273" s="1" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B4273" s="1" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4274" s="1" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="B4274" s="1" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4275" s="1" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="B4275" s="1" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4276" s="1" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="B4276" s="1" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4277" s="1" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="B4277" s="1" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4278" s="1" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="B4278" s="1" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4279" s="1" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="B4279" s="1" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4280" s="1" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="B4280" s="1" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4281" s="1" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="B4281" s="1" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4282" s="1" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="B4282" s="1" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4283" s="1" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="B4283" s="1" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4284" s="1" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="B4284" s="1" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4285" s="1" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B4285" s="1" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4286" s="1" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="B4286" s="1" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4287" s="1" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="B4287" s="1" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4288" s="1" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="B4288" s="1" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4289" s="1" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="B4289" s="1" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4290" s="1" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="B4290" s="1" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4291" s="1" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B4291" s="1" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4292" s="1" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="B4292" s="1" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4293" s="1" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="B4293" s="1" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4294" s="1" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="B4294" s="1" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4295" s="1" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="B4295" s="1" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4296" s="1" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="B4296" s="1" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4297" s="1" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="B4297" s="1" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4298" s="1" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B4298" s="1" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4299" s="1" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="B4299" s="1" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4300" s="1" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="B4300" s="1" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4301" s="1" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="B4301" s="1" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4302" s="1" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="B4302" s="1" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4303" s="1" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B4303" s="1" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4304" s="1" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="B4304" s="1" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4305" s="1" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B4305" s="1" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4306" s="1" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="B4306" s="1" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4307" s="1" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="B4307" s="1" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4308" s="1" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="B4308" s="1" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4309" s="1" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="B4309" s="1" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="4310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4310" s="1" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="B4310" s="1" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4311" s="1" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="B4311" s="1" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4312" s="1" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="B4312" s="1" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4313" s="1" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B4313" s="1" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4314" s="1" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="B4314" s="1" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4315" s="1" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="B4315" s="1" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4316" s="1" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="B4316" s="1" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4317" s="1" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="B4317" s="1" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4318" s="1" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="B4318" s="1" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4319" s="1" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="B4319" s="1" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4320" s="1" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="B4320" s="1" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4321" s="1" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="B4321" s="1" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4322" s="1" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="B4322" s="1" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4323" s="1" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B4323" s="1" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4324" s="1" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="B4324" s="1" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4325" s="1" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="B4325" s="1" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4326" s="1" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="B4326" s="1" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4327" s="1" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="B4327" s="1" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4328" s="1" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="B4328" s="1" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4329" s="1" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="B4329" s="1" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4330" s="1" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="B4330" s="1" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4331" s="1" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="B4331" s="1" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4332" s="1" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="B4332" s="1" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4333" s="1" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B4333" s="1" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4334" s="1" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="B4334" s="1" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4335" s="1" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="B4335" s="1" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4336" s="1" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="B4336" s="1" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4337" s="1" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="B4337" s="1" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4338" s="1" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="B4338" s="1" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4339" s="1" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="B4339" s="1" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4340" s="1" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="B4340" s="1" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4341" s="1" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="B4341" s="1" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4342" s="1" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="B4342" s="1" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4343" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="B4343" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4344" s="1" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="B4344" s="1" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4345" s="1" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="B4345" s="1" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4346" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="B4346" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4347" s="1" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="B4347" s="1" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4348" s="1" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="B4348" s="1" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4349" s="1" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="B4349" s="1" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4350" s="1" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="B4350" s="1" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4351" s="1" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="B4351" s="1" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4352" s="1" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="B4352" s="1" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4353" s="1" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="B4353" s="1" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4354" s="1" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="B4354" s="1" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4355" s="1" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="B4355" s="1" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4356" s="1" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="B4356" s="1" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4357" s="1" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="B4357" s="1" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4358" s="1" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="B4358" s="1" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4359" s="1" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="B4359" s="1" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4360" s="1" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="B4360" s="1" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4361" s="1" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="B4361" s="1" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="4362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4362" s="1" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="B4362" s="1" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="4363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4363" s="1" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="B4363" s="1" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4364" s="1" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="B4364" s="1" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4365" s="1" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="B4365" s="1" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4366" s="1" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="B4366" s="1" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="4367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4367" s="1" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="B4367" s="1" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="4368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4368" s="1" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="B4368" s="1" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="4369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4369" s="1" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="B4369" s="1" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4370" s="1" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="B4370" s="1" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="4371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4371" s="1" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="B4371" s="1" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4372" s="1" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="B4372" s="1" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="4373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4373" s="1" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="B4373" s="1" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="4374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4374" s="1" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="B4374" s="1" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4375" s="1" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="B4375" s="1" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="4376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4376" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="B4376" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4377" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="B4377" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4378" s="1" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="B4378" s="1" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4379" s="1" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="B4379" s="1" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4380" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="B4380" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4381" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="B4381" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4382" s="1" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="B4382" s="1" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="4383" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4383" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B4383" s="1" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4384" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="B4384" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4385" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="B4385" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4386" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="B4386" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="4387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4387" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="B4387" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="4388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4388" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="B4388" s="1" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4389" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="B4389" s="1" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="4390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4390" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="B4390" s="1" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4391" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="B4391" s="1" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="4392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4392" s="1" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="B4392" s="1" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="4393" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4393" s="1" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="B4393" s="1" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4394" s="1" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="B4394" s="1" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="4395" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4395" s="1" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="B4395" s="1" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4396" s="1" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="B4396" s="1" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4397" s="1" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B4397" s="1" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="4398" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4398" s="1" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="B4398" s="1" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4399" s="1" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="B4399" s="1" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="4400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4400" s="1" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="B4400" s="1" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4401" s="1" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="B4401" s="1" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4402" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="B4402" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4403" s="1" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="B4403" s="1" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4404" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B4404" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4405" s="1" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B4405" s="1" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4406" s="1" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="B4406" s="1" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="4407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4407" s="1" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="B4407" s="1" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="4408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4408" s="1" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="B4408" s="1" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4409" s="1" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="B4409" s="1" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="4410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4410" s="1" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="B4410" s="1" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4411" s="1" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="B4411" s="1" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="4412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4412" s="1" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="B4412" s="1" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="4413" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4413" s="1" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B4413" s="1" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="4414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4414" s="1" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="B4414" s="1" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="4415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4415" s="1" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="B4415" s="1" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="4416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4416" s="1" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="B4416" s="1" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4417" s="1" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="B4417" s="1" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="4418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4418" s="1" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="B4418" s="1" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="4419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4419" s="1" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="B4419" s="1" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4420" s="1" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="B4420" s="1" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4421" s="1" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="B4421" s="1" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4422" s="1" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="B4422" s="1" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4423" s="1" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="B4423" s="1" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4424" s="1" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="B4424" s="1" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4425" s="1" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="B4425" s="1" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="4426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4426" s="1" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="B4426" s="1" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4427" s="1" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="B4427" s="1" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="4428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4428" s="1" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="B4428" s="1" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="4429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4429" s="1" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="B4429" s="1" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="4430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4430" s="1" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="B4430" s="1" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="4431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4431" s="1" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="B4431" s="1" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4432" s="1" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="B4432" s="1" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="4433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4433" s="1" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="B4433" s="1" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="4434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4434" s="1" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="B4434" s="1" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="4435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4435" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B4435" s="1" t="s">
         <v>4437</v>
-      </c>
-      <c r="B4435" s="1" t="s">
-        <v>4438</v>
       </c>
     </row>
     <row r="4436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4436" s="1" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="B4436" s="1" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4437" s="1" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="B4437" s="1" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4438" s="1" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B4438" s="1" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4439" s="1" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="B4439" s="1" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4440" s="1" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="B4440" s="1" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4441" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="B4441" s="1" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4442" s="1" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="B4442" s="1" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4443" s="1" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="B4443" s="1" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4444" s="1" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="B4444" s="1" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4445" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B4445" s="1" t="s">
         <v>4448</v>
-      </c>
-      <c r="B4445" s="1" t="s">
-        <v>4449</v>
       </c>
     </row>
     <row r="4446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4446" s="1" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="B4446" s="1" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4447" s="1" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B4447" s="1" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4448" s="1" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="B4448" s="1" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4449" s="1" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="B4449" s="1" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4450" s="1" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B4450" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4451" s="1" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="B4451" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4452" s="1" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="B4452" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4453" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B4453" s="1" t="s">
         <v>4457</v>
-      </c>
-      <c r="B4453" s="1" t="s">
-        <v>4458</v>
       </c>
     </row>
     <row r="4454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4454" s="1" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="B4454" s="1" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4455" s="1" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="B4455" s="1" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4456" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B4456" s="1" t="s">
         <v>4461</v>
-      </c>
-      <c r="B4456" s="1" t="s">
-        <v>4462</v>
       </c>
     </row>
     <row r="4457" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4457" s="1" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="B4457" s="1" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4458" s="1" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="B4458" s="1" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4459" s="1" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="B4459" s="1" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4460" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4460" s="1" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="B4460" s="1" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4461" s="1" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="B4461" s="1" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4462" s="1" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="B4462" s="1" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4463" s="1" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="B4463" s="1" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4464" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4464" s="1" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B4464" s="1" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4465" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B4465" s="1" t="s">
         <v>4471</v>
-      </c>
-      <c r="B4465" s="1" t="s">
-        <v>4472</v>
       </c>
     </row>
     <row r="4466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4466" s="1" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B4466" s="1" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="4467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4467" s="1" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="B4467" s="1" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4468" s="1" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="B4468" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4469" s="1" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="B4469" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4470" s="1" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="B4470" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4471" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4471" s="1" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B4471" s="1" t="s">
         <v>4478</v>
-      </c>
-      <c r="B4471" s="1" t="s">
-        <v>4479</v>
       </c>
     </row>
     <row r="4472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4472" s="1" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="B4472" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4473" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4473" s="1" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="B4473" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4474" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4474" s="1" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="B4474" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4475" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4475" s="1" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="B4475" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4476" s="1" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="B4476" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4477" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4477" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="B4477" s="1" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4478" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B4478" s="1" t="s">
         <v>4488</v>
-      </c>
-      <c r="B4478" s="1" t="s">
-        <v>4489</v>
       </c>
     </row>
     <row r="4479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4479" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B4479" s="1" t="s">
         <v>4491</v>
-      </c>
-      <c r="B4479" s="1" t="s">
-        <v>4492</v>
       </c>
     </row>
     <row r="4480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4480" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B4480" s="1" t="s">
         <v>4493</v>
-      </c>
-      <c r="B4480" s="1" t="s">
-        <v>4494</v>
       </c>
     </row>
     <row r="4481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4481" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B4481" s="1" t="s">
         <v>4495</v>
-      </c>
-      <c r="B4481" s="1" t="s">
-        <v>4496</v>
       </c>
     </row>
     <row r="4482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4482" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B4482" s="1" t="s">
         <v>4499</v>
-      </c>
-      <c r="B4482" s="1" t="s">
-        <v>4500</v>
       </c>
     </row>
     <row r="4483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4483" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B4483" s="1" t="s">
         <v>4501</v>
-      </c>
-      <c r="B4483" s="1" t="s">
-        <v>4502</v>
       </c>
     </row>
     <row r="4484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4484" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B4484" s="1" t="s">
         <v>4504</v>
-      </c>
-      <c r="B4484" s="1" t="s">
-        <v>4505</v>
       </c>
     </row>
     <row r="4485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4485" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B4485" s="1" t="s">
         <v>4506</v>
-      </c>
-      <c r="B4485" s="1" t="s">
-        <v>4507</v>
       </c>
     </row>
     <row r="4486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4486" s="1" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="B4486" s="1" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="4487" spans="1:2" x14ac:dyDescent="0.25">
@@ -50337,55 +50743,55 @@
         <v>3741</v>
       </c>
       <c r="B4487" s="1" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="4488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4488" s="1" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="B4488" s="1" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="4489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4489" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B4489" s="1" t="s">
         <v>4511</v>
-      </c>
-      <c r="B4489" s="1" t="s">
-        <v>4512</v>
       </c>
     </row>
     <row r="4490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4490" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B4490" s="1" t="s">
         <v>4513</v>
-      </c>
-      <c r="B4490" s="1" t="s">
-        <v>4514</v>
       </c>
     </row>
     <row r="4491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4491" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B4491" s="1" t="s">
         <v>4515</v>
-      </c>
-      <c r="B4491" s="1" t="s">
-        <v>4516</v>
       </c>
     </row>
     <row r="4492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4492" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B4492" s="1" t="s">
         <v>4517</v>
-      </c>
-      <c r="B4492" s="1" t="s">
-        <v>4518</v>
       </c>
     </row>
     <row r="4493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4493" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B4493" s="1" t="s">
         <v>4519</v>
-      </c>
-      <c r="B4493" s="1" t="s">
-        <v>4520</v>
       </c>
     </row>
     <row r="4494" spans="1:2" x14ac:dyDescent="0.25">
@@ -50393,351 +50799,943 @@
         <v>3744</v>
       </c>
       <c r="B4494" s="1" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="4495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4495" s="1" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="B4495" s="1" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="4496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4496" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B4496" s="1" t="s">
         <v>4523</v>
-      </c>
-      <c r="B4496" s="1" t="s">
-        <v>4524</v>
       </c>
     </row>
     <row r="4497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4497" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B4497" s="1" t="s">
         <v>4526</v>
-      </c>
-      <c r="B4497" s="1" t="s">
-        <v>4527</v>
       </c>
     </row>
     <row r="4498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4498" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B4498" s="1" t="s">
         <v>4528</v>
-      </c>
-      <c r="B4498" s="1" t="s">
-        <v>4529</v>
       </c>
     </row>
     <row r="4499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4499" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B4499" s="1" t="s">
         <v>4530</v>
-      </c>
-      <c r="B4499" s="1" t="s">
-        <v>4531</v>
       </c>
     </row>
     <row r="4500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4500" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B4500" s="1" t="s">
         <v>4532</v>
-      </c>
-      <c r="B4500" s="1" t="s">
-        <v>4533</v>
       </c>
     </row>
     <row r="4501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4501" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B4501" s="1" t="s">
         <v>4534</v>
-      </c>
-      <c r="B4501" s="1" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="4502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4502" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B4502" s="1" t="s">
         <v>4536</v>
-      </c>
-      <c r="B4502" s="1" t="s">
-        <v>4537</v>
       </c>
     </row>
     <row r="4503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4503" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B4503" s="1" t="s">
         <v>4539</v>
-      </c>
-      <c r="B4503" s="1" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="4504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4504" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B4504" s="1" t="s">
         <v>4541</v>
-      </c>
-      <c r="B4504" s="1" t="s">
-        <v>4542</v>
       </c>
     </row>
     <row r="4505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4505" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B4505" s="1" t="s">
         <v>4543</v>
-      </c>
-      <c r="B4505" s="1" t="s">
-        <v>4544</v>
       </c>
     </row>
     <row r="4506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4506" s="1" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="B4506" s="1" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="4507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4507" s="1" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="B4507" s="1" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="4508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4508" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B4508" s="1" t="s">
         <v>4550</v>
-      </c>
-      <c r="B4508" s="1" t="s">
-        <v>4551</v>
       </c>
     </row>
     <row r="4509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4509" s="1" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B4509" s="1" t="s">
         <v>4553</v>
-      </c>
-      <c r="B4509" s="1" t="s">
-        <v>4554</v>
       </c>
     </row>
     <row r="4510" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4510" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B4510" s="1" t="s">
         <v>4555</v>
-      </c>
-      <c r="B4510" s="1" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="4511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4511" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4511" s="1" t="s">
         <v>4557</v>
-      </c>
-      <c r="B4511" s="1" t="s">
-        <v>4558</v>
       </c>
     </row>
     <row r="4512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4512" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B4512" s="1" t="s">
         <v>4561</v>
-      </c>
-      <c r="B4512" s="1" t="s">
-        <v>4562</v>
       </c>
     </row>
     <row r="4513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4513" s="1" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B4513" s="1" t="s">
         <v>4563</v>
-      </c>
-      <c r="B4513" s="1" t="s">
-        <v>4564</v>
       </c>
     </row>
     <row r="4514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4514" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B4514" s="1" t="s">
         <v>4566</v>
-      </c>
-      <c r="B4514" s="1" t="s">
-        <v>4567</v>
       </c>
     </row>
     <row r="4515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4515" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B4515" s="1" t="s">
         <v>4568</v>
-      </c>
-      <c r="B4515" s="1" t="s">
-        <v>4569</v>
       </c>
     </row>
     <row r="4516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4516" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B4516" s="1" t="s">
         <v>4573</v>
-      </c>
-      <c r="B4516" s="1" t="s">
-        <v>4574</v>
       </c>
     </row>
     <row r="4517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4517" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B4517" s="1" t="s">
         <v>4576</v>
-      </c>
-      <c r="B4517" s="1" t="s">
-        <v>4577</v>
       </c>
     </row>
     <row r="4518" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4518" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B4518" s="1" t="s">
         <v>4578</v>
-      </c>
-      <c r="B4518" s="1" t="s">
-        <v>4579</v>
       </c>
     </row>
     <row r="4519" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4519" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B4519" s="1" t="s">
         <v>4580</v>
-      </c>
-      <c r="B4519" s="1" t="s">
-        <v>4581</v>
       </c>
     </row>
     <row r="4520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4520" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B4520" s="1" t="s">
         <v>4582</v>
-      </c>
-      <c r="B4520" s="1" t="s">
-        <v>4583</v>
       </c>
     </row>
     <row r="4521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4521" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B4521" s="1" t="s">
         <v>4584</v>
-      </c>
-      <c r="B4521" s="1" t="s">
-        <v>4585</v>
       </c>
     </row>
     <row r="4522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4522" s="1" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="B4522" s="1" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="4523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4523" s="1" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="B4523" s="1" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="4524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4524" s="1" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="B4524" s="1" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="4525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4525" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B4525" s="1" t="s">
         <v>4592</v>
-      </c>
-      <c r="B4525" s="1" t="s">
-        <v>4593</v>
       </c>
     </row>
     <row r="4526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4526" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B4526" s="1" t="s">
         <v>4594</v>
-      </c>
-      <c r="B4526" s="1" t="s">
-        <v>4595</v>
       </c>
     </row>
     <row r="4527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4527" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B4527" s="1" t="s">
         <v>4596</v>
-      </c>
-      <c r="B4527" s="1" t="s">
-        <v>4597</v>
       </c>
     </row>
     <row r="4528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4528" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B4528" s="1" t="s">
         <v>4598</v>
-      </c>
-      <c r="B4528" s="1" t="s">
-        <v>4599</v>
       </c>
     </row>
     <row r="4529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4529" s="1" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="B4529" s="1" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="4530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4530" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B4530" s="1" t="s">
         <v>4601</v>
-      </c>
-      <c r="B4530" s="1" t="s">
-        <v>4602</v>
       </c>
     </row>
     <row r="4531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4531" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B4531" s="1" t="s">
         <v>4603</v>
-      </c>
-      <c r="B4531" s="1" t="s">
-        <v>4604</v>
       </c>
     </row>
     <row r="4532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4532" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B4532" s="1" t="s">
         <v>4605</v>
-      </c>
-      <c r="B4532" s="1" t="s">
-        <v>4606</v>
       </c>
     </row>
     <row r="4533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4533" s="1" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="B4533" s="1" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="4534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4534" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B4534" s="1" t="s">
         <v>4608</v>
-      </c>
-      <c r="B4534" s="1" t="s">
-        <v>4609</v>
       </c>
     </row>
     <row r="4535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4535" s="1" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="B4535" s="1" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="4536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4536" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B4536" s="1" t="s">
         <v>4611</v>
-      </c>
-      <c r="B4536" s="1" t="s">
-        <v>4612</v>
       </c>
     </row>
     <row r="4537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4537" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B4537" s="1" t="s">
         <v>4613</v>
       </c>
-      <c r="B4537" s="1" t="s">
-        <v>4614</v>
+    </row>
+    <row r="4538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4538" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B4538" s="1" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4539" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B4539" s="1" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4540" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B4540" s="1" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4541" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B4541" s="1" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4542" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4542" s="1" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4543" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B4543" s="1" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4544" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B4544" s="1" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4545" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B4545" s="1" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4546" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B4546" s="1" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4547" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B4547" s="1" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4548" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B4548" s="1" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4549" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B4549" s="1" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4550" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B4550" s="1" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4551" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B4551" s="1" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4552" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B4552" s="1" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4553" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B4553" s="1" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4554" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B4554" s="1" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4555" s="1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B4555" s="1" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4556" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B4556" s="1" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4557" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B4557" s="1" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4558" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B4558" s="1" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4559" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B4559" s="1" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4560" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B4560" s="1" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4561" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B4561" s="1" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4562" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B4562" s="1" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4563" s="1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B4563" s="1" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4564" s="1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B4564" s="1" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4565" s="1" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B4565" s="1" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4566" s="1" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B4566" s="1" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4567" s="1" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B4567" s="1" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4568" s="1" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B4568" s="1" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4569" s="1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B4569" s="1" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4570" s="1" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B4570" s="1" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4571" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B4571" s="1" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4572" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B4572" s="1" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4573" s="1" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B4573" s="1" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4574" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B4574" s="1" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4575" s="1" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B4575" s="1" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4576" s="1" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B4576" s="1" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4577" s="1" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B4577" s="1" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4578" s="1" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B4578" s="1" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4579" s="1" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B4579" s="1" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4580" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B4580" s="1" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4581" s="1" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B4581" s="1" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4582" s="1" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B4582" s="1" t="s">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4583" s="1" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B4583" s="1" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4584" s="1" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B4584" s="1" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4585" s="1" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B4585" s="1" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4586" s="1" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B4586" s="1" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4587" s="1" t="s">
+        <v>4699</v>
+      </c>
+      <c r="B4587" s="1" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4588" s="1" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B4588" s="1" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4589" s="1" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B4589" s="1" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4590" s="1" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B4590" s="1" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4591" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B4591" s="1" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4592" s="1" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B4592" s="1" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4593" s="1" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B4593" s="1" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4594" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B4594" s="1" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4595" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B4595" s="1" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4596" s="1" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B4596" s="1" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4597" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B4597" s="1" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4598" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B4598" s="1" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4599" s="1" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B4599" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4600" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B4600" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4601" s="1" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B4601" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4602" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B4602" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4603" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B4603" s="1" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4604" s="1" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B4604" s="1" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4605" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B4605" s="1" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4606" s="1" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B4606" s="1" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4607" s="1" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B4607" s="1" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4608" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B4608" s="1" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4609" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B4609" s="1" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4610" s="1" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B4610" s="1" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4611" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B4611" s="1" t="s">
+        <v>4749</v>
       </c>
     </row>
   </sheetData>
@@ -50792,7 +51790,7 @@
   <conditionalFormatting sqref="B3853:B3914">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6757:B1048576 B210:B1632 B2:B24 B26:B85 B144 B1805:B1809 B3915:B4214 B3442:B3852">
+  <conditionalFormatting sqref="B6757:B1048576 B2:B24 B26:B85 B144 B1805:B1809 B3442:B3852 B210:B1632 B3915:B4214">
     <cfRule type="duplicateValues" dxfId="2" priority="12"/>
     <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A922D-E538-4DF0-BC2F-A10915AC940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE5FFF9-55A5-4F0F-9CD8-DD902D277641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14981,8 +14981,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D4606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2242" workbookViewId="0">
-      <selection activeCell="C2374" sqref="C2374"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C1612" sqref="C1612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B327D6-610E-4913-865D-D10739BB1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97969305-129E-4615-9226-4D12FBA96513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6917" uniqueCount="3657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6989" uniqueCount="3716">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11004,6 +11004,183 @@
   </si>
   <si>
     <t>Người hay có bệnh mất ngủ, căng thẳng tinh thần, lo âu, tăng huyết áp, trầm cảm.</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -11039,266 +11216,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11855,10 +11785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:D3458"/>
+  <dimension ref="A2:G3472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2570" workbookViewId="0">
-      <selection activeCell="A2583" sqref="A2583"/>
+    <sheetView tabSelected="1" topLeftCell="A3471" workbookViewId="0">
+      <selection activeCell="C3471" sqref="C3471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12212,7 +12142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -15404,7 +15334,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>573</v>
       </c>
@@ -15436,7 +15366,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>577</v>
       </c>
@@ -23236,7 +23166,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="1423" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
         <v>1531</v>
       </c>
@@ -23460,7 +23390,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="1451" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
         <v>1559</v>
       </c>
@@ -23572,7 +23502,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="1465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
         <v>1573</v>
       </c>
@@ -23628,7 +23558,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="1472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
         <v>1580</v>
       </c>
@@ -26082,7 +26012,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="1778" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
         <v>1764</v>
       </c>
@@ -27042,7 +26972,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="1898" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A1898" s="1" t="s">
         <v>1884</v>
       </c>
@@ -27314,7 +27244,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="1932" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="1932" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
         <v>1918</v>
       </c>
@@ -28106,7 +28036,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2031" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2031" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2031" s="1" t="s">
         <v>2017</v>
       </c>
@@ -39517,7 +39447,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="3457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3457" s="1" t="s">
         <v>3568</v>
       </c>
@@ -39525,77 +39455,339 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="3458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3458" s="1" t="s">
         <v>3570</v>
       </c>
       <c r="B3458" s="1" t="s">
         <v>3569</v>
       </c>
+    </row>
+    <row r="3459" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3459" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B3459" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C3459" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="D3459" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="E3459" s="1"/>
+      <c r="F3459" s="2"/>
+    </row>
+    <row r="3460" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3460" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B3460" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C3460" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D3460" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="E3460" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="F3460" s="1" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3461" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B3461" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C3461" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D3461" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E3461" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="F3461" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="G3461" s="1" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3462" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B3462" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C3462" s="1"/>
+      <c r="D3462" s="1"/>
+      <c r="E3462" s="1"/>
+      <c r="F3462" s="2"/>
+    </row>
+    <row r="3463" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3463" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B3463" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C3463" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D3463" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="E3463" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F3463" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G3463" s="1" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3464" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B3464" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C3464" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D3464" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="E3464" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="F3464" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3465" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B3465" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C3465" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D3465" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="E3465" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="F3465" s="1" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3466" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B3466" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C3466" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D3466" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E3466" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="F3466" s="1" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3467" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B3467" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C3467" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D3467" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E3467" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F3467" s="1"/>
+    </row>
+    <row r="3468" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3468" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B3468" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C3468" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D3468" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="E3468" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F3468" s="1" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3469" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B3469" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C3469" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D3469" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E3469" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F3469" s="1"/>
+      <c r="G3469" s="1"/>
+    </row>
+    <row r="3470" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3470" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B3470" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C3470" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D3470" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E3470" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F3470" s="1"/>
+      <c r="G3470" s="1"/>
+    </row>
+    <row r="3471" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3471" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B3471" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C3471" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D3471" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E3471" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F3471" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="G3471" s="1" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3472" s="1"/>
+      <c r="D3472" s="1"/>
+      <c r="E3472" s="1"/>
+      <c r="F3472" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D3458" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="26" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
-    <cfRule type="duplicateValues" dxfId="20" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1753:A2566">
+    <cfRule type="duplicateValues" dxfId="20" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2700:A2761">
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5604:A1048576 A210:A1631 A2:A24 A26:A85 A144 A2571:A2699 A2762:A3061">
-    <cfRule type="duplicateValues" dxfId="18" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+  <conditionalFormatting sqref="A1:B3458 A3473:B1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1561">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1681">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1753:B2566">
+    <cfRule type="duplicateValues" dxfId="4" priority="1945"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2700:B2761">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5604:B1048576 B2:B24 B26:B85 B144 B2571:B2699 B210:B1631 B2762:B3061">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1681">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1753:A2566">
-    <cfRule type="duplicateValues" dxfId="1" priority="1943"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1753:B2566">
-    <cfRule type="duplicateValues" dxfId="0" priority="1944"/>
+  <conditionalFormatting sqref="A3459:B3472">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2CA53-8968-4C08-94A9-82CC4560EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528BA27-983C-4131-A3E5-771D1847243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="2065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2006">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -6036,183 +6036,6 @@
   </si>
   <si>
     <t>Người hay có bệnh mất ngủ, căng thẳng tinh thần, lo âu, tăng huyết áp, trầm cảm.</t>
-  </si>
-  <si>
-    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
-  </si>
-  <si>
-    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
-  </si>
-  <si>
-    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
-  </si>
-  <si>
-    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
-  </si>
-  <si>
-    <t>Là cách cục đại cát, phú quý lâu dài</t>
-  </si>
-  <si>
-    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
-  </si>
-  <si>
-    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
-  </si>
-  <si>
-    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
-  </si>
-  <si>
-    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
-  </si>
-  <si>
-    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
-  </si>
-  <si>
-    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
-  </si>
-  <si>
-    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
-  </si>
-  <si>
-    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
-  </si>
-  <si>
-    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
-  </si>
-  <si>
-    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
-  </si>
-  <si>
-    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
-  </si>
-  <si>
-    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
-  </si>
-  <si>
-    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
-  </si>
-  <si>
-    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
-  </si>
-  <si>
-    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
-  </si>
-  <si>
-    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
-  </si>
-  <si>
-    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
-  </si>
-  <si>
-    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
-  </si>
-  <si>
-    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
-  </si>
-  <si>
-    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
-  </si>
-  <si>
-    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
-  </si>
-  <si>
-    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
-  </si>
-  <si>
-    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
-  </si>
-  <si>
-    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
-  </si>
-  <si>
-    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
-  </si>
-  <si>
-    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
   <si>
     <t>Mắt đau, hoặc bị vật kim khí sắc nhọn chọc vào mắt</t>
@@ -6564,8 +6387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1820" sqref="B1820"/>
+    <sheetView tabSelected="1" topLeftCell="A1778" workbookViewId="0">
+      <selection activeCell="C1790" sqref="C1790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13340,7 +13163,7 @@
         <v>877</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>2064</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -17845,7 +17668,7 @@
         <v>1406</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>2060</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
@@ -17901,7 +17724,7 @@
         <v>1413</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>2061</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
@@ -17909,7 +17732,7 @@
         <v>1414</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>2062</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
@@ -17925,7 +17748,7 @@
         <v>1416</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>2063</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20888,258 +20711,166 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="1790" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>2001</v>
-      </c>
-      <c r="C1790" s="1" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D1790" s="1" t="s">
-        <v>2003</v>
-      </c>
+        <v>1614</v>
+      </c>
+      <c r="C1790" s="1"/>
+      <c r="D1790" s="1"/>
       <c r="E1790" s="1"/>
       <c r="F1790" s="2"/>
     </row>
-    <row r="1791" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C1791" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D1791" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E1791" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F1791" s="1" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+      <c r="C1791" s="1"/>
+      <c r="D1791" s="1"/>
+      <c r="E1791" s="1"/>
+      <c r="F1791" s="1"/>
+    </row>
+    <row r="1792" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C1792" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D1792" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E1792" s="1" t="s">
-        <v>2012</v>
-      </c>
-      <c r="F1792" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="G1792" s="1" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="C1792" s="1"/>
+      <c r="D1792" s="1"/>
+      <c r="E1792" s="1"/>
+      <c r="F1792" s="1"/>
+      <c r="G1792" s="1"/>
+    </row>
+    <row r="1793" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>2015</v>
+        <v>1618</v>
       </c>
       <c r="C1793" s="1"/>
       <c r="D1793" s="1"/>
       <c r="E1793" s="1"/>
       <c r="F1793" s="2"/>
     </row>
-    <row r="1794" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>2016</v>
-      </c>
-      <c r="C1794" s="1" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D1794" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E1794" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F1794" s="1" t="s">
-        <v>2020</v>
-      </c>
-      <c r="G1794" s="1" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+      <c r="C1794" s="1"/>
+      <c r="D1794" s="1"/>
+      <c r="E1794" s="1"/>
+      <c r="F1794" s="1"/>
+      <c r="G1794" s="1"/>
+    </row>
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C1795" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D1795" s="1" t="s">
-        <v>2024</v>
-      </c>
-      <c r="E1795" s="1" t="s">
-        <v>2025</v>
-      </c>
-      <c r="F1795" s="1" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+      <c r="C1795" s="1"/>
+      <c r="D1795" s="1"/>
+      <c r="E1795" s="1"/>
+      <c r="F1795" s="1"/>
+    </row>
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C1796" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D1796" s="1" t="s">
-        <v>2029</v>
-      </c>
-      <c r="E1796" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F1796" s="1" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1610</v>
+      </c>
+      <c r="C1796" s="1"/>
+      <c r="D1796" s="1"/>
+      <c r="E1796" s="1"/>
+      <c r="F1796" s="1"/>
+    </row>
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="C1797" s="1" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D1797" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E1797" s="1" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F1797" s="1" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+      <c r="C1797" s="1"/>
+      <c r="D1797" s="1"/>
+      <c r="E1797" s="1"/>
+      <c r="F1797" s="1"/>
+    </row>
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C1798" s="1" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D1798" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E1798" s="1" t="s">
-        <v>2040</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="C1798" s="1"/>
+      <c r="D1798" s="1"/>
+      <c r="E1798" s="1"/>
       <c r="F1798" s="1"/>
     </row>
-    <row r="1799" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C1799" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D1799" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E1799" s="1" t="s">
-        <v>2044</v>
-      </c>
-      <c r="F1799" s="1" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+        <v>1613</v>
+      </c>
+      <c r="C1799" s="1"/>
+      <c r="D1799" s="1"/>
+      <c r="E1799" s="1"/>
+      <c r="F1799" s="1"/>
+    </row>
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C1800" s="1" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D1800" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="E1800" s="1" t="s">
-        <v>2049</v>
-      </c>
+        <v>1611</v>
+      </c>
+      <c r="C1800" s="1"/>
+      <c r="D1800" s="1"/>
+      <c r="E1800" s="1"/>
       <c r="F1800" s="1"/>
       <c r="G1800" s="1"/>
     </row>
-    <row r="1801" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C1801" s="1" t="s">
-        <v>2051</v>
-      </c>
-      <c r="D1801" s="1" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E1801" s="1" t="s">
-        <v>2053</v>
-      </c>
+        <v>1609</v>
+      </c>
+      <c r="C1801" s="1"/>
+      <c r="D1801" s="1"/>
+      <c r="E1801" s="1"/>
       <c r="F1801" s="1"/>
       <c r="G1801" s="1"/>
     </row>
-    <row r="1802" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C1802" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1802" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="E1802" s="1" t="s">
-        <v>2057</v>
-      </c>
-      <c r="F1802" s="1" t="s">
-        <v>2058</v>
-      </c>
-      <c r="G1802" s="1" t="s">
-        <v>2059</v>
-      </c>
+        <v>1616</v>
+      </c>
+      <c r="C1802" s="1"/>
+      <c r="D1802" s="1"/>
+      <c r="E1802" s="1"/>
+      <c r="F1802" s="1"/>
+      <c r="G1802" s="1"/>
     </row>
     <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1803" s="1"/>
